--- a/learning/data_sample.xlsx
+++ b/learning/data_sample.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="86">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -176,18 +176,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>answer_id(y)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>question_id1(x1)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>question_id(x3)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>-</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -199,10 +187,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>text(x4)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>SUMAOUってどういうもの？</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -616,6 +600,33 @@
   </si>
   <si>
     <t>どうやるの</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>answer_id(y)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>answer_id1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>answer_id2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お試し</t>
+    <rPh sb="1" eb="2">
+      <t>タメ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -675,7 +686,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="180">
+  <cellStyleXfs count="234">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -783,6 +794,60 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -865,7 +930,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="180">
+  <cellStyles count="234">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="108" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="110" builtinId="8" hidden="1"/>
@@ -903,6 +968,33 @@
     <cellStyle name="ハイパーリンク" xfId="174" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="176" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="178" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="180" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="182" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="184" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="186" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="188" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="190" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="192" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="194" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="196" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="198" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="200" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="202" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="204" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="206" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="208" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="210" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="212" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="214" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="216" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="218" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="220" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="222" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="224" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="226" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="228" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="230" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="232" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="3" builtinId="9" hidden="1"/>
@@ -1046,6 +1138,33 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="175" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="177" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="179" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="181" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="183" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="185" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="187" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="189" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="191" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="193" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="195" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="197" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="199" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="201" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="203" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="205" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="207" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="209" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="211" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="213" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="215" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="217" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="219" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="221" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="223" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="225" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="227" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="229" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="231" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="233" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1377,7 +1496,7 @@
   <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:B23"/>
+      <selection activeCell="B2" sqref="B2:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1408,7 +1527,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D3" s="3"/>
     </row>
@@ -1417,7 +1536,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D4" s="3"/>
     </row>
@@ -1426,7 +1545,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D5" s="3"/>
     </row>
@@ -1807,10 +1926,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1834,10 +1953,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="70">
@@ -1936,16 +2055,43 @@
       </c>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" ht="109">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>61</v>
+      </c>
       <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:4">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>60</v>
+      </c>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>59</v>
+      </c>
       <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:4">
@@ -1998,12 +2144,6 @@
     </row>
     <row r="31" spans="4:4">
       <c r="D31" s="3"/>
-    </row>
-    <row r="32" spans="4:4">
-      <c r="D32" s="3"/>
-    </row>
-    <row r="33" spans="4:4">
-      <c r="D33" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2019,10 +2159,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F231"/>
+  <dimension ref="A1:F232"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -2034,16 +2174,16 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
@@ -2051,979 +2191,993 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="F2" t="str">
-        <f>"db.insert({question_id1: "&amp;A2&amp;", 'question_id': '"&amp;B2&amp;"', 'text': '"&amp;C2&amp;"', 'answer_id': "&amp;D2&amp;"})"</f>
-        <v>db.insert({question_id1: 1, 'question_id': '2', 'text': 'SUMAOUってどういうもの？', 'answer_id': 1})</v>
+        <f>"db.insert({'answer_id2': "&amp;A2&amp;", 'answer_id1': "&amp;B2&amp;", 'text': '"&amp;C2&amp;"', 'answer_id': "&amp;D2&amp;"})"</f>
+        <v>db.insert({'answer_id2': 9, 'answer_id1': 10, 'text': 'SUMAOUってどういうもの？', 'answer_id': 1})</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" ref="F3:F55" si="0">"db.insert({question_id1: "&amp;A3&amp;", 'question_id': '"&amp;B3&amp;"', 'text': '"&amp;C3&amp;"', 'answer_id': "&amp;D3&amp;"})"</f>
-        <v>db.insert({question_id1: 1, 'question_id': '2', 'text': 'どういうものなの？', 'answer_id': 1})</v>
+        <f t="shared" ref="F3:F56" si="0">"db.insert({'answer_id2': "&amp;A3&amp;", 'answer_id1': "&amp;B3&amp;", 'text': '"&amp;C3&amp;"', 'answer_id': "&amp;D3&amp;"})"</f>
+        <v>db.insert({'answer_id2': 9, 'answer_id1': 10, 'text': 'どういうものなの？', 'answer_id': 1})</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="0"/>
-        <v>db.insert({question_id1: 1, 'question_id': '2', 'text': 'なにそれ？', 'answer_id': 1})</v>
+        <v>db.insert({'answer_id2': 9, 'answer_id1': 10, 'text': 'なにそれ？', 'answer_id': 1})</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="0"/>
-        <v>db.insert({question_id1: 1, 'question_id': '2', 'text': '詳しく教えて', 'answer_id': 1})</v>
+        <v>db.insert({'answer_id2': 9, 'answer_id1': 10, 'text': '詳しく教えて', 'answer_id': 1})</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="0"/>
-        <v>db.insert({question_id1: 1, 'question_id': '2', 'text': '教えてください', 'answer_id': 1})</v>
+        <v>db.insert({'answer_id2': 9, 'answer_id1': 10, 'text': '教えてください', 'answer_id': 1})</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="0"/>
-        <v>db.insert({question_id1: 1, 'question_id': '2', 'text': 'どういうサービス', 'answer_id': 1})</v>
+        <v>db.insert({'answer_id2': 9, 'answer_id1': 10, 'text': 'どういうサービス', 'answer_id': 1})</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="0"/>
-        <v>db.insert({question_id1: 1, 'question_id': '2', 'text': '知らないんだけど', 'answer_id': 1})</v>
+        <v>db.insert({'answer_id2': 9, 'answer_id1': 10, 'text': '知らないんだけど', 'answer_id': 1})</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="0"/>
-        <v>db.insert({question_id1: 1, 'question_id': '2', 'text': '知らない', 'answer_id': 1})</v>
+        <v>db.insert({'answer_id2': 9, 'answer_id1': 10, 'text': '知らない', 'answer_id': 1})</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="0"/>
-        <v>db.insert({question_id1: 1, 'question_id': '2', 'text': '聞いたことない', 'answer_id': 1})</v>
+        <v>db.insert({'answer_id2': 9, 'answer_id1': 10, 'text': '聞いたことない', 'answer_id': 1})</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="0"/>
-        <v>db.insert({question_id1: 1, 'question_id': '2', 'text': '何なの？', 'answer_id': 1})</v>
+        <v>db.insert({'answer_id2': 9, 'answer_id1': 10, 'text': '何なの？', 'answer_id': 1})</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="0"/>
-        <v>db.insert({question_id1: 1, 'question_id': '2', 'text': '何それ', 'answer_id': 1})</v>
+        <v>db.insert({'answer_id2': 9, 'answer_id1': 10, 'text': '何それ', 'answer_id': 1})</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="0"/>
-        <v>db.insert({question_id1: 1, 'question_id': '2', 'text': 'くわしくおしえて', 'answer_id': 1})</v>
+        <v>db.insert({'answer_id2': 9, 'answer_id1': 10, 'text': 'くわしくおしえて', 'answer_id': 1})</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D14">
         <v>2</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="0"/>
-        <v>db.insert({question_id1: 1, 'question_id': '2', 'text': 'お試し期間ある？', 'answer_id': 2})</v>
+        <v>db.insert({'answer_id2': 9, 'answer_id1': 10, 'text': 'お試し期間ある？', 'answer_id': 2})</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="D15">
         <v>2</v>
       </c>
       <c r="F15" t="str">
-        <f t="shared" si="0"/>
-        <v>db.insert({question_id1: 1, 'question_id': '2', 'text': '試用期間', 'answer_id': 2})</v>
+        <f t="shared" ref="F15" si="1">"db.insert({'answer_id2': "&amp;A15&amp;", 'answer_id1': "&amp;B15&amp;", 'text': '"&amp;C15&amp;"', 'answer_id': "&amp;D15&amp;"})"</f>
+        <v>db.insert({'answer_id2': 9, 'answer_id1': 10, 'text': 'お試し', 'answer_id': 2})</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D16">
         <v>2</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="0"/>
-        <v>db.insert({question_id1: 1, 'question_id': '2', 'text': '試用出来る？', 'answer_id': 2})</v>
+        <v>db.insert({'answer_id2': 9, 'answer_id1': 10, 'text': '試用期間', 'answer_id': 2})</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D17">
         <v>2</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="0"/>
-        <v>db.insert({question_id1: 1, 'question_id': '2', 'text': '試せる？', 'answer_id': 2})</v>
+        <v>db.insert({'answer_id2': 9, 'answer_id1': 10, 'text': '試用出来る？', 'answer_id': 2})</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D18">
         <v>2</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="0"/>
-        <v>db.insert({question_id1: 1, 'question_id': '2', 'text': 'ためせる？', 'answer_id': 2})</v>
+        <v>db.insert({'answer_id2': 9, 'answer_id1': 10, 'text': '試せる？', 'answer_id': 2})</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D19">
         <v>2</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="0"/>
-        <v>db.insert({question_id1: 1, 'question_id': '2', 'text': '無料', 'answer_id': 2})</v>
+        <v>db.insert({'answer_id2': 9, 'answer_id1': 10, 'text': 'ためせる？', 'answer_id': 2})</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D20">
         <v>2</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="0"/>
-        <v>db.insert({question_id1: 1, 'question_id': '2', 'text': '無料で使ってみたい', 'answer_id': 2})</v>
+        <v>db.insert({'answer_id2': 9, 'answer_id1': 10, 'text': '無料', 'answer_id': 2})</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D21">
         <v>2</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="0"/>
-        <v>db.insert({question_id1: 1, 'question_id': '2', 'text': '無料お試し期間って？', 'answer_id': 2})</v>
+        <v>db.insert({'answer_id2': 9, 'answer_id1': 10, 'text': '無料で使ってみたい', 'answer_id': 2})</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D22">
         <v>2</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="0"/>
-        <v>db.insert({question_id1: 1, 'question_id': '2', 'text': '使ってみたい', 'answer_id': 2})</v>
+        <v>db.insert({'answer_id2': 9, 'answer_id1': 10, 'text': '無料お試し期間って？', 'answer_id': 2})</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B23">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="0"/>
-        <v>db.insert({question_id1: 1, 'question_id': '3', 'text': '最大二ヶ月って？', 'answer_id': 3})</v>
+        <v>db.insert({'answer_id2': 9, 'answer_id1': 10, 'text': '使ってみたい', 'answer_id': 2})</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B24">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D24">
         <v>3</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" si="0"/>
-        <v>db.insert({question_id1: 1, 'question_id': '3', 'text': '無料？', 'answer_id': 3})</v>
+        <v>db.insert({'answer_id2': 9, 'answer_id1': 10, 'text': '最大二ヶ月って？', 'answer_id': 3})</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B25">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D25">
         <v>3</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="0"/>
-        <v>db.insert({question_id1: 1, 'question_id': '3', 'text': '無料で試せるの？', 'answer_id': 3})</v>
+        <v>db.insert({'answer_id2': 9, 'answer_id1': 11, 'text': '無料？', 'answer_id': 3})</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B26">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D26">
         <v>3</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="0"/>
-        <v>db.insert({question_id1: 1, 'question_id': '3', 'text': '試せる？', 'answer_id': 3})</v>
+        <v>db.insert({'answer_id2': 9, 'answer_id1': 11, 'text': '無料で試せるの？', 'answer_id': 3})</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B27">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="D27">
         <v>3</v>
       </c>
       <c r="F27" t="str">
         <f t="shared" si="0"/>
-        <v>db.insert({question_id1: 1, 'question_id': '3', 'text': '無料で使える？', 'answer_id': 3})</v>
+        <v>db.insert({'answer_id2': 9, 'answer_id1': 11, 'text': '試せる？', 'answer_id': 3})</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B28">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D28">
         <v>3</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" si="0"/>
-        <v>db.insert({question_id1: 1, 'question_id': '3', 'text': '無料ですか？', 'answer_id': 3})</v>
+        <v>db.insert({'answer_id2': 9, 'answer_id1': 11, 'text': '無料で使える？', 'answer_id': 3})</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B29">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D29">
         <v>3</v>
       </c>
       <c r="F29" t="str">
         <f t="shared" si="0"/>
-        <v>db.insert({question_id1: 1, 'question_id': '3', 'text': '有料？', 'answer_id': 3})</v>
+        <v>db.insert({'answer_id2': 9, 'answer_id1': 11, 'text': '無料ですか？', 'answer_id': 3})</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B30">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D30">
         <v>3</v>
       </c>
       <c r="F30" t="str">
         <f t="shared" si="0"/>
-        <v>db.insert({question_id1: 1, 'question_id': '3', 'text': '無料でいける？', 'answer_id': 3})</v>
+        <v>db.insert({'answer_id2': 9, 'answer_id1': 11, 'text': '有料？', 'answer_id': 3})</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B31">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D31">
         <v>3</v>
       </c>
       <c r="F31" t="str">
         <f t="shared" si="0"/>
-        <v>db.insert({question_id1: 1, 'question_id': '3', 'text': '無料2ヶ月ってどういう意味？', 'answer_id': 3})</v>
+        <v>db.insert({'answer_id2': 9, 'answer_id1': 11, 'text': '無料でいける？', 'answer_id': 3})</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B32">
+        <v>11</v>
+      </c>
+      <c r="C32" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32">
         <v>3</v>
       </c>
-      <c r="C32" t="s">
-        <v>57</v>
-      </c>
-      <c r="D32">
-        <v>4</v>
-      </c>
       <c r="F32" t="str">
         <f t="shared" si="0"/>
-        <v>db.insert({question_id1: 1, 'question_id': '3', 'text': '他サービスの申し込みって必要？', 'answer_id': 4})</v>
+        <v>db.insert({'answer_id2': 9, 'answer_id1': 11, 'text': '無料2ヶ月ってどういう意味？', 'answer_id': 3})</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B33">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C33" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D33">
         <v>4</v>
       </c>
       <c r="F33" t="str">
         <f t="shared" si="0"/>
-        <v>db.insert({question_id1: 1, 'question_id': '3', 'text': '他のサービス', 'answer_id': 4})</v>
+        <v>db.insert({'answer_id2': 9, 'answer_id1': 11, 'text': '他サービスの申し込みって必要？', 'answer_id': 4})</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B34">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D34">
         <v>4</v>
       </c>
       <c r="F34" t="str">
         <f t="shared" si="0"/>
-        <v>db.insert({question_id1: 1, 'question_id': '3', 'text': 'SUMAOUだけでいける？', 'answer_id': 4})</v>
+        <v>db.insert({'answer_id2': 9, 'answer_id1': 11, 'text': '他のサービス', 'answer_id': 4})</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B35">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D35">
         <v>4</v>
       </c>
       <c r="F35" t="str">
         <f t="shared" si="0"/>
-        <v>db.insert({question_id1: 1, 'question_id': '3', 'text': 'スマオウだけでいける？', 'answer_id': 4})</v>
+        <v>db.insert({'answer_id2': 9, 'answer_id1': 11, 'text': 'SUMAOUだけでいける？', 'answer_id': 4})</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B36">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D36">
         <v>4</v>
       </c>
       <c r="F36" t="str">
         <f t="shared" si="0"/>
-        <v>db.insert({question_id1: 1, 'question_id': '3', 'text': 'すまおうだけで良い？', 'answer_id': 4})</v>
+        <v>db.insert({'answer_id2': 9, 'answer_id1': 11, 'text': 'スマオウだけでいける？', 'answer_id': 4})</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B37">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D37">
         <v>4</v>
       </c>
       <c r="F37" t="str">
         <f t="shared" si="0"/>
-        <v>db.insert({question_id1: 1, 'question_id': '3', 'text': '他にもサービス登録するの', 'answer_id': 4})</v>
+        <v>db.insert({'answer_id2': 9, 'answer_id1': 11, 'text': 'すまおうだけで良い？', 'answer_id': 4})</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B38">
+        <v>11</v>
+      </c>
+      <c r="C38" t="s">
+        <v>58</v>
+      </c>
+      <c r="D38">
         <v>4</v>
       </c>
-      <c r="C38" t="s">
-        <v>66</v>
-      </c>
-      <c r="D38">
-        <v>5</v>
-      </c>
       <c r="F38" t="str">
         <f t="shared" si="0"/>
-        <v>db.insert({question_id1: 1, 'question_id': '4', 'text': 'どんな機能？', 'answer_id': 5})</v>
+        <v>db.insert({'answer_id2': 9, 'answer_id1': 11, 'text': '他にもサービス登録するの', 'answer_id': 4})</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B39">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C39" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D39">
         <v>5</v>
       </c>
       <c r="F39" t="str">
         <f t="shared" si="0"/>
-        <v>db.insert({question_id1: 1, 'question_id': '4', 'text': 'どんなメリットがあるの？', 'answer_id': 5})</v>
+        <v>db.insert({'answer_id2': 9, 'answer_id1': 12, 'text': 'どんな機能？', 'answer_id': 5})</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B40">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C40" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D40">
         <v>5</v>
       </c>
       <c r="F40" t="str">
         <f t="shared" si="0"/>
-        <v>db.insert({question_id1: 1, 'question_id': '4', 'text': '何してくれるの', 'answer_id': 5})</v>
+        <v>db.insert({'answer_id2': 9, 'answer_id1': 12, 'text': 'どんなメリットがあるの？', 'answer_id': 5})</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B41">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C41" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D41">
         <v>5</v>
       </c>
       <c r="F41" t="str">
         <f t="shared" si="0"/>
-        <v>db.insert({question_id1: 1, 'question_id': '4', 'text': 'どんなもの', 'answer_id': 5})</v>
+        <v>db.insert({'answer_id2': 9, 'answer_id1': 12, 'text': '何してくれるの', 'answer_id': 5})</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B42">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C42" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D42">
         <v>5</v>
       </c>
       <c r="F42" t="str">
         <f t="shared" si="0"/>
-        <v>db.insert({question_id1: 1, 'question_id': '4', 'text': '何それ', 'answer_id': 5})</v>
+        <v>db.insert({'answer_id2': 9, 'answer_id1': 12, 'text': 'どんなもの', 'answer_id': 5})</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B43">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C43" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D43">
         <v>5</v>
       </c>
       <c r="F43" t="str">
         <f t="shared" si="0"/>
-        <v>db.insert({question_id1: 1, 'question_id': '4', 'text': 'どうなる？', 'answer_id': 5})</v>
+        <v>db.insert({'answer_id2': 9, 'answer_id1': 12, 'text': '何それ', 'answer_id': 5})</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B44">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C44" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D44">
         <v>5</v>
       </c>
       <c r="F44" t="str">
         <f t="shared" si="0"/>
-        <v>db.insert({question_id1: 1, 'question_id': '4', 'text': 'どうなるの？', 'answer_id': 5})</v>
+        <v>db.insert({'answer_id2': 9, 'answer_id1': 12, 'text': 'どうなる？', 'answer_id': 5})</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B45">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C45" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D45">
         <v>5</v>
       </c>
       <c r="F45" t="str">
         <f t="shared" si="0"/>
-        <v>db.insert({question_id1: 1, 'question_id': '4', 'text': 'どんな感じ？', 'answer_id': 5})</v>
+        <v>db.insert({'answer_id2': 9, 'answer_id1': 12, 'text': 'どうなるの？', 'answer_id': 5})</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B46">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C46" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D46">
         <v>5</v>
       </c>
       <c r="F46" t="str">
         <f t="shared" si="0"/>
-        <v>db.insert({question_id1: 1, 'question_id': '4', 'text': 'どのような機能？', 'answer_id': 5})</v>
+        <v>db.insert({'answer_id2': 9, 'answer_id1': 12, 'text': 'どんな感じ？', 'answer_id': 5})</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B47">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C47" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D47">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F47" t="str">
         <f t="shared" si="0"/>
-        <v>db.insert({question_id1: 1, 'question_id': '4', 'text': 'マニュアル', 'answer_id': 6})</v>
+        <v>db.insert({'answer_id2': 9, 'answer_id1': 12, 'text': 'どのような機能？', 'answer_id': 5})</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B48">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C48" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D48">
         <v>6</v>
       </c>
       <c r="F48" t="str">
         <f t="shared" si="0"/>
-        <v>db.insert({question_id1: 1, 'question_id': '4', 'text': '作り方は？', 'answer_id': 6})</v>
+        <v>db.insert({'answer_id2': 9, 'answer_id1': 12, 'text': 'マニュアル', 'answer_id': 6})</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B49">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C49" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D49">
         <v>6</v>
       </c>
       <c r="F49" t="str">
         <f t="shared" si="0"/>
-        <v>db.insert({question_id1: 1, 'question_id': '4', 'text': 'どうやって作るの？', 'answer_id': 6})</v>
+        <v>db.insert({'answer_id2': 9, 'answer_id1': 12, 'text': '作り方は？', 'answer_id': 6})</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B50">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C50" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D50">
         <v>6</v>
       </c>
       <c r="F50" t="str">
         <f t="shared" si="0"/>
-        <v>db.insert({question_id1: 1, 'question_id': '4', 'text': '作り方わからない', 'answer_id': 6})</v>
+        <v>db.insert({'answer_id2': 9, 'answer_id1': 12, 'text': 'どうやって作るの？', 'answer_id': 6})</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B51">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C51" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D51">
         <v>6</v>
       </c>
       <c r="F51" t="str">
         <f t="shared" si="0"/>
-        <v>db.insert({question_id1: 1, 'question_id': '4', 'text': '教えて', 'answer_id': 6})</v>
+        <v>db.insert({'answer_id2': 9, 'answer_id1': 12, 'text': '作り方わからない', 'answer_id': 6})</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B52">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C52" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D52">
         <v>6</v>
       </c>
       <c r="F52" t="str">
         <f t="shared" si="0"/>
-        <v>db.insert({question_id1: 1, 'question_id': '4', 'text': '作り方教えて', 'answer_id': 6})</v>
+        <v>db.insert({'answer_id2': 9, 'answer_id1': 12, 'text': '教えて', 'answer_id': 6})</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B53">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C53" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D53">
         <v>6</v>
       </c>
       <c r="F53" t="str">
         <f t="shared" si="0"/>
-        <v>db.insert({question_id1: 1, 'question_id': '4', 'text': 'どうやってつくればいいの', 'answer_id': 6})</v>
+        <v>db.insert({'answer_id2': 9, 'answer_id1': 12, 'text': '作り方教えて', 'answer_id': 6})</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B54">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C54" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D54">
         <v>6</v>
       </c>
       <c r="F54" t="str">
         <f t="shared" si="0"/>
-        <v>db.insert({question_id1: 1, 'question_id': '4', 'text': 'どうやってつくるか教えて', 'answer_id': 6})</v>
+        <v>db.insert({'answer_id2': 9, 'answer_id1': 12, 'text': 'どうやってつくればいいの', 'answer_id': 6})</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B55">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C55" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D55">
         <v>6</v>
       </c>
       <c r="F55" t="str">
         <f t="shared" si="0"/>
-        <v>db.insert({question_id1: 1, 'question_id': '4', 'text': 'どうやるの', 'answer_id': 6})</v>
-      </c>
-    </row>
-    <row r="69" spans="2:3">
-      <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
+        <v>db.insert({'answer_id2': 9, 'answer_id1': 12, 'text': 'どうやってつくるか教えて', 'answer_id': 6})</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56">
+        <v>9</v>
+      </c>
+      <c r="B56">
+        <v>12</v>
+      </c>
+      <c r="C56" t="s">
+        <v>79</v>
+      </c>
+      <c r="D56">
+        <v>6</v>
+      </c>
+      <c r="F56" t="str">
+        <f t="shared" si="0"/>
+        <v>db.insert({'answer_id2': 9, 'answer_id1': 12, 'text': 'どうやるの', 'answer_id': 6})</v>
+      </c>
     </row>
     <row r="70" spans="2:3">
       <c r="B70" s="3"/>
@@ -3081,9 +3235,9 @@
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
     </row>
-    <row r="92" spans="2:3">
-      <c r="B92" s="3"/>
-      <c r="C92" s="3"/>
+    <row r="84" spans="2:3">
+      <c r="B84" s="3"/>
+      <c r="C84" s="3"/>
     </row>
     <row r="93" spans="2:3">
       <c r="B93" s="3"/>
@@ -3322,12 +3476,12 @@
       <c r="C151" s="3"/>
     </row>
     <row r="152" spans="2:3">
-      <c r="B152" s="1"/>
-      <c r="C152" s="1"/>
+      <c r="B152" s="3"/>
+      <c r="C152" s="3"/>
     </row>
     <row r="153" spans="2:3">
-      <c r="B153" s="3"/>
-      <c r="C153" s="3"/>
+      <c r="B153" s="1"/>
+      <c r="C153" s="1"/>
     </row>
     <row r="154" spans="2:3">
       <c r="B154" s="3"/>
@@ -3422,12 +3576,12 @@
       <c r="C176" s="3"/>
     </row>
     <row r="177" spans="2:3">
-      <c r="B177" s="1"/>
-      <c r="C177" s="1"/>
+      <c r="B177" s="3"/>
+      <c r="C177" s="3"/>
     </row>
     <row r="178" spans="2:3">
-      <c r="B178" s="3"/>
-      <c r="C178" s="3"/>
+      <c r="B178" s="1"/>
+      <c r="C178" s="1"/>
     </row>
     <row r="179" spans="2:3">
       <c r="B179" s="3"/>
@@ -3478,12 +3632,12 @@
       <c r="C190" s="3"/>
     </row>
     <row r="191" spans="2:3">
-      <c r="B191" s="1"/>
-      <c r="C191" s="1"/>
+      <c r="B191" s="3"/>
+      <c r="C191" s="3"/>
     </row>
     <row r="192" spans="2:3">
-      <c r="B192" s="3"/>
-      <c r="C192" s="3"/>
+      <c r="B192" s="1"/>
+      <c r="C192" s="1"/>
     </row>
     <row r="193" spans="2:3">
       <c r="B193" s="3"/>
@@ -3640,6 +3794,10 @@
     <row r="231" spans="2:3">
       <c r="B231" s="3"/>
       <c r="C231" s="3"/>
+    </row>
+    <row r="232" spans="2:3">
+      <c r="B232" s="3"/>
+      <c r="C232" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/learning/data_sample.xlsx
+++ b/learning/data_sample.xlsx
@@ -615,18 +615,18 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>answer_id1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>answer_id2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>お試し</t>
     <rPh sb="1" eb="2">
       <t>タメ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>answer_id1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>answer_id2</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -686,7 +686,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="234">
+  <cellStyleXfs count="240">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -794,6 +794,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -930,7 +936,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="234">
+  <cellStyles count="240">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="108" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="110" builtinId="8" hidden="1"/>
@@ -995,6 +1001,9 @@
     <cellStyle name="ハイパーリンク" xfId="228" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="230" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="232" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="234" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="236" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="238" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="3" builtinId="9" hidden="1"/>
@@ -1165,6 +1174,9 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="229" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="231" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="233" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="235" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="237" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="239" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -2162,7 +2174,7 @@
   <dimension ref="A1:F232"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -2177,7 +2189,7 @@
         <v>84</v>
       </c>
       <c r="B1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C1" t="s">
         <v>81</v>
@@ -2431,7 +2443,7 @@
         <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D15">
         <v>2</v>

--- a/learning/data_sample.xlsx
+++ b/learning/data_sample.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="0" windowWidth="33600" windowHeight="20540" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="-80" yWindow="0" windowWidth="33600" windowHeight="20540" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="質問マスタ" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="83">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -118,10 +118,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>category_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>text</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -176,10 +172,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>回答なし</t>
     <rPh sb="0" eb="2">
       <t>カイトウ</t>
@@ -600,10 +592,6 @@
   </si>
   <si>
     <t>どうやるの</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -686,7 +674,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="240">
+  <cellStyleXfs count="252">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -794,6 +782,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -936,7 +936,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="240">
+  <cellStyles count="252">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="108" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="110" builtinId="8" hidden="1"/>
@@ -1004,6 +1004,12 @@
     <cellStyle name="ハイパーリンク" xfId="234" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="236" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="238" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="240" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="242" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="244" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="246" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="248" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="250" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="3" builtinId="9" hidden="1"/>
@@ -1177,6 +1183,12 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="235" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="237" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="239" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="241" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="243" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="245" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="247" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="249" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="251" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1539,7 +1551,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D3" s="3"/>
     </row>
@@ -1548,7 +1560,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D4" s="3"/>
     </row>
@@ -1557,7 +1569,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D5" s="3"/>
     </row>
@@ -1938,224 +1950,191 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="3" width="96" customWidth="1"/>
+    <col min="2" max="2" width="96" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="70">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="70">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" ht="83">
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" ht="83">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" ht="83">
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:3" ht="83">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" ht="57">
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:3" ht="57">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" ht="96">
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:3" ht="96">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:4" ht="31">
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:3" ht="31">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>4</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="B9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>4</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:4" ht="109">
+      <c r="B10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:3" ht="109">
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="C12" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="B12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="C13" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="B13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="C14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="4:4">
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="4:4">
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="4:4">
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="4:4">
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="4:4">
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="4:4">
-      <c r="D22" s="3"/>
-    </row>
-    <row r="23" spans="4:4">
-      <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="4:4">
-      <c r="D24" s="3"/>
-    </row>
-    <row r="25" spans="4:4">
-      <c r="D25" s="3"/>
-    </row>
-    <row r="26" spans="4:4">
-      <c r="D26" s="3"/>
-    </row>
-    <row r="27" spans="4:4">
-      <c r="D27" s="3"/>
-    </row>
-    <row r="28" spans="4:4">
-      <c r="D28" s="3"/>
-    </row>
-    <row r="29" spans="4:4">
-      <c r="D29" s="3"/>
-    </row>
-    <row r="30" spans="4:4">
-      <c r="D30" s="3"/>
-    </row>
-    <row r="31" spans="4:4">
-      <c r="D31" s="3"/>
+      <c r="B14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" s="3"/>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" s="3"/>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="3:3">
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="3:3">
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="3:3">
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25" spans="3:3">
+      <c r="C25" s="3"/>
+    </row>
+    <row r="26" spans="3:3">
+      <c r="C26" s="3"/>
+    </row>
+    <row r="27" spans="3:3">
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="3:3">
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="3:3">
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" spans="3:3">
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31" spans="3:3">
+      <c r="C31" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2173,8 +2152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F232"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -2186,16 +2165,16 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
@@ -2209,14 +2188,14 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="F2" t="str">
-        <f>"db.insert({'answer_id2': "&amp;A2&amp;", 'answer_id1': "&amp;B2&amp;", 'text': '"&amp;C2&amp;"', 'answer_id': "&amp;D2&amp;"})"</f>
-        <v>db.insert({'answer_id2': 9, 'answer_id1': 10, 'text': 'SUMAOUってどういうもの？', 'answer_id': 1})</v>
+        <f>"db.insert({'answer_id1': "&amp;A2&amp;", 'answer_id2': "&amp;B2&amp;", 'text': '"&amp;C2&amp;"', 'answer_id': "&amp;D2&amp;"})"</f>
+        <v>db.insert({'answer_id1': 9, 'answer_id2': 10, 'text': 'SUMAOUってどういうもの？', 'answer_id': 1})</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2227,14 +2206,14 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" ref="F3:F56" si="0">"db.insert({'answer_id2': "&amp;A3&amp;", 'answer_id1': "&amp;B3&amp;", 'text': '"&amp;C3&amp;"', 'answer_id': "&amp;D3&amp;"})"</f>
-        <v>db.insert({'answer_id2': 9, 'answer_id1': 10, 'text': 'どういうものなの？', 'answer_id': 1})</v>
+        <f t="shared" ref="F3:F56" si="0">"db.insert({'answer_id1': "&amp;A3&amp;", 'answer_id2': "&amp;B3&amp;", 'text': '"&amp;C3&amp;"', 'answer_id': "&amp;D3&amp;"})"</f>
+        <v>db.insert({'answer_id1': 9, 'answer_id2': 10, 'text': 'どういうものなの？', 'answer_id': 1})</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2245,14 +2224,14 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="0"/>
-        <v>db.insert({'answer_id2': 9, 'answer_id1': 10, 'text': 'なにそれ？', 'answer_id': 1})</v>
+        <v>db.insert({'answer_id1': 9, 'answer_id2': 10, 'text': 'なにそれ？', 'answer_id': 1})</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2263,14 +2242,14 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="0"/>
-        <v>db.insert({'answer_id2': 9, 'answer_id1': 10, 'text': '詳しく教えて', 'answer_id': 1})</v>
+        <v>db.insert({'answer_id1': 9, 'answer_id2': 10, 'text': '詳しく教えて', 'answer_id': 1})</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2281,14 +2260,14 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="0"/>
-        <v>db.insert({'answer_id2': 9, 'answer_id1': 10, 'text': '教えてください', 'answer_id': 1})</v>
+        <v>db.insert({'answer_id1': 9, 'answer_id2': 10, 'text': '教えてください', 'answer_id': 1})</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2299,14 +2278,14 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="0"/>
-        <v>db.insert({'answer_id2': 9, 'answer_id1': 10, 'text': 'どういうサービス', 'answer_id': 1})</v>
+        <v>db.insert({'answer_id1': 9, 'answer_id2': 10, 'text': 'どういうサービス', 'answer_id': 1})</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2317,14 +2296,14 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="0"/>
-        <v>db.insert({'answer_id2': 9, 'answer_id1': 10, 'text': '知らないんだけど', 'answer_id': 1})</v>
+        <v>db.insert({'answer_id1': 9, 'answer_id2': 10, 'text': '知らないんだけど', 'answer_id': 1})</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2335,14 +2314,14 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="0"/>
-        <v>db.insert({'answer_id2': 9, 'answer_id1': 10, 'text': '知らない', 'answer_id': 1})</v>
+        <v>db.insert({'answer_id1': 9, 'answer_id2': 10, 'text': '知らない', 'answer_id': 1})</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2353,14 +2332,14 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="0"/>
-        <v>db.insert({'answer_id2': 9, 'answer_id1': 10, 'text': '聞いたことない', 'answer_id': 1})</v>
+        <v>db.insert({'answer_id1': 9, 'answer_id2': 10, 'text': '聞いたことない', 'answer_id': 1})</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2371,14 +2350,14 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="0"/>
-        <v>db.insert({'answer_id2': 9, 'answer_id1': 10, 'text': '何なの？', 'answer_id': 1})</v>
+        <v>db.insert({'answer_id1': 9, 'answer_id2': 10, 'text': '何なの？', 'answer_id': 1})</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2389,14 +2368,14 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="0"/>
-        <v>db.insert({'answer_id2': 9, 'answer_id1': 10, 'text': '何それ', 'answer_id': 1})</v>
+        <v>db.insert({'answer_id1': 9, 'answer_id2': 10, 'text': '何それ', 'answer_id': 1})</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2407,14 +2386,14 @@
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="0"/>
-        <v>db.insert({'answer_id2': 9, 'answer_id1': 10, 'text': 'くわしくおしえて', 'answer_id': 1})</v>
+        <v>db.insert({'answer_id1': 9, 'answer_id2': 10, 'text': 'くわしくおしえて', 'answer_id': 1})</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2425,14 +2404,14 @@
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D14">
         <v>2</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="0"/>
-        <v>db.insert({'answer_id2': 9, 'answer_id1': 10, 'text': 'お試し期間ある？', 'answer_id': 2})</v>
+        <v>db.insert({'answer_id1': 9, 'answer_id2': 10, 'text': 'お試し期間ある？', 'answer_id': 2})</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2443,14 +2422,14 @@
         <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D15">
         <v>2</v>
       </c>
       <c r="F15" t="str">
-        <f t="shared" ref="F15" si="1">"db.insert({'answer_id2': "&amp;A15&amp;", 'answer_id1': "&amp;B15&amp;", 'text': '"&amp;C15&amp;"', 'answer_id': "&amp;D15&amp;"})"</f>
-        <v>db.insert({'answer_id2': 9, 'answer_id1': 10, 'text': 'お試し', 'answer_id': 2})</v>
+        <f t="shared" si="0"/>
+        <v>db.insert({'answer_id1': 9, 'answer_id2': 10, 'text': 'お試し', 'answer_id': 2})</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2461,14 +2440,14 @@
         <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D16">
         <v>2</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="0"/>
-        <v>db.insert({'answer_id2': 9, 'answer_id1': 10, 'text': '試用期間', 'answer_id': 2})</v>
+        <v>db.insert({'answer_id1': 9, 'answer_id2': 10, 'text': '試用期間', 'answer_id': 2})</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2479,14 +2458,14 @@
         <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D17">
         <v>2</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="0"/>
-        <v>db.insert({'answer_id2': 9, 'answer_id1': 10, 'text': '試用出来る？', 'answer_id': 2})</v>
+        <v>db.insert({'answer_id1': 9, 'answer_id2': 10, 'text': '試用出来る？', 'answer_id': 2})</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2497,14 +2476,14 @@
         <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D18">
         <v>2</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="0"/>
-        <v>db.insert({'answer_id2': 9, 'answer_id1': 10, 'text': '試せる？', 'answer_id': 2})</v>
+        <v>db.insert({'answer_id1': 9, 'answer_id2': 10, 'text': '試せる？', 'answer_id': 2})</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2515,14 +2494,14 @@
         <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D19">
         <v>2</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="0"/>
-        <v>db.insert({'answer_id2': 9, 'answer_id1': 10, 'text': 'ためせる？', 'answer_id': 2})</v>
+        <v>db.insert({'answer_id1': 9, 'answer_id2': 10, 'text': 'ためせる？', 'answer_id': 2})</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2533,14 +2512,14 @@
         <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D20">
         <v>2</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="0"/>
-        <v>db.insert({'answer_id2': 9, 'answer_id1': 10, 'text': '無料', 'answer_id': 2})</v>
+        <v>db.insert({'answer_id1': 9, 'answer_id2': 10, 'text': '無料', 'answer_id': 2})</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2551,14 +2530,14 @@
         <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D21">
         <v>2</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="0"/>
-        <v>db.insert({'answer_id2': 9, 'answer_id1': 10, 'text': '無料で使ってみたい', 'answer_id': 2})</v>
+        <v>db.insert({'answer_id1': 9, 'answer_id2': 10, 'text': '無料で使ってみたい', 'answer_id': 2})</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2569,14 +2548,14 @@
         <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D22">
         <v>2</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="0"/>
-        <v>db.insert({'answer_id2': 9, 'answer_id1': 10, 'text': '無料お試し期間って？', 'answer_id': 2})</v>
+        <v>db.insert({'answer_id1': 9, 'answer_id2': 10, 'text': '無料お試し期間って？', 'answer_id': 2})</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2587,14 +2566,14 @@
         <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D23">
         <v>2</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="0"/>
-        <v>db.insert({'answer_id2': 9, 'answer_id1': 10, 'text': '使ってみたい', 'answer_id': 2})</v>
+        <v>db.insert({'answer_id1': 9, 'answer_id2': 10, 'text': '使ってみたい', 'answer_id': 2})</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2605,14 +2584,14 @@
         <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D24">
         <v>3</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" si="0"/>
-        <v>db.insert({'answer_id2': 9, 'answer_id1': 10, 'text': '最大二ヶ月って？', 'answer_id': 3})</v>
+        <v>db.insert({'answer_id1': 9, 'answer_id2': 10, 'text': '最大二ヶ月って？', 'answer_id': 3})</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2623,14 +2602,14 @@
         <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D25">
         <v>3</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="0"/>
-        <v>db.insert({'answer_id2': 9, 'answer_id1': 11, 'text': '無料？', 'answer_id': 3})</v>
+        <v>db.insert({'answer_id1': 9, 'answer_id2': 11, 'text': '無料？', 'answer_id': 3})</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2641,14 +2620,14 @@
         <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D26">
         <v>3</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="0"/>
-        <v>db.insert({'answer_id2': 9, 'answer_id1': 11, 'text': '無料で試せるの？', 'answer_id': 3})</v>
+        <v>db.insert({'answer_id1': 9, 'answer_id2': 11, 'text': '無料で試せるの？', 'answer_id': 3})</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2659,14 +2638,14 @@
         <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D27">
         <v>3</v>
       </c>
       <c r="F27" t="str">
         <f t="shared" si="0"/>
-        <v>db.insert({'answer_id2': 9, 'answer_id1': 11, 'text': '試せる？', 'answer_id': 3})</v>
+        <v>db.insert({'answer_id1': 9, 'answer_id2': 11, 'text': '試せる？', 'answer_id': 3})</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2677,14 +2656,14 @@
         <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D28">
         <v>3</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" si="0"/>
-        <v>db.insert({'answer_id2': 9, 'answer_id1': 11, 'text': '無料で使える？', 'answer_id': 3})</v>
+        <v>db.insert({'answer_id1': 9, 'answer_id2': 11, 'text': '無料で使える？', 'answer_id': 3})</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2695,14 +2674,14 @@
         <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D29">
         <v>3</v>
       </c>
       <c r="F29" t="str">
         <f t="shared" si="0"/>
-        <v>db.insert({'answer_id2': 9, 'answer_id1': 11, 'text': '無料ですか？', 'answer_id': 3})</v>
+        <v>db.insert({'answer_id1': 9, 'answer_id2': 11, 'text': '無料ですか？', 'answer_id': 3})</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2713,14 +2692,14 @@
         <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D30">
         <v>3</v>
       </c>
       <c r="F30" t="str">
         <f t="shared" si="0"/>
-        <v>db.insert({'answer_id2': 9, 'answer_id1': 11, 'text': '有料？', 'answer_id': 3})</v>
+        <v>db.insert({'answer_id1': 9, 'answer_id2': 11, 'text': '有料？', 'answer_id': 3})</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2731,14 +2710,14 @@
         <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D31">
         <v>3</v>
       </c>
       <c r="F31" t="str">
         <f t="shared" si="0"/>
-        <v>db.insert({'answer_id2': 9, 'answer_id1': 11, 'text': '無料でいける？', 'answer_id': 3})</v>
+        <v>db.insert({'answer_id1': 9, 'answer_id2': 11, 'text': '無料でいける？', 'answer_id': 3})</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2749,14 +2728,14 @@
         <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D32">
         <v>3</v>
       </c>
       <c r="F32" t="str">
         <f t="shared" si="0"/>
-        <v>db.insert({'answer_id2': 9, 'answer_id1': 11, 'text': '無料2ヶ月ってどういう意味？', 'answer_id': 3})</v>
+        <v>db.insert({'answer_id1': 9, 'answer_id2': 11, 'text': '無料2ヶ月ってどういう意味？', 'answer_id': 3})</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2767,14 +2746,14 @@
         <v>11</v>
       </c>
       <c r="C33" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D33">
         <v>4</v>
       </c>
       <c r="F33" t="str">
         <f t="shared" si="0"/>
-        <v>db.insert({'answer_id2': 9, 'answer_id1': 11, 'text': '他サービスの申し込みって必要？', 'answer_id': 4})</v>
+        <v>db.insert({'answer_id1': 9, 'answer_id2': 11, 'text': '他サービスの申し込みって必要？', 'answer_id': 4})</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2785,14 +2764,14 @@
         <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D34">
         <v>4</v>
       </c>
       <c r="F34" t="str">
         <f t="shared" si="0"/>
-        <v>db.insert({'answer_id2': 9, 'answer_id1': 11, 'text': '他のサービス', 'answer_id': 4})</v>
+        <v>db.insert({'answer_id1': 9, 'answer_id2': 11, 'text': '他のサービス', 'answer_id': 4})</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2803,14 +2782,14 @@
         <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D35">
         <v>4</v>
       </c>
       <c r="F35" t="str">
         <f t="shared" si="0"/>
-        <v>db.insert({'answer_id2': 9, 'answer_id1': 11, 'text': 'SUMAOUだけでいける？', 'answer_id': 4})</v>
+        <v>db.insert({'answer_id1': 9, 'answer_id2': 11, 'text': 'SUMAOUだけでいける？', 'answer_id': 4})</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2821,14 +2800,14 @@
         <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D36">
         <v>4</v>
       </c>
       <c r="F36" t="str">
         <f t="shared" si="0"/>
-        <v>db.insert({'answer_id2': 9, 'answer_id1': 11, 'text': 'スマオウだけでいける？', 'answer_id': 4})</v>
+        <v>db.insert({'answer_id1': 9, 'answer_id2': 11, 'text': 'スマオウだけでいける？', 'answer_id': 4})</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2839,14 +2818,14 @@
         <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D37">
         <v>4</v>
       </c>
       <c r="F37" t="str">
         <f t="shared" si="0"/>
-        <v>db.insert({'answer_id2': 9, 'answer_id1': 11, 'text': 'すまおうだけで良い？', 'answer_id': 4})</v>
+        <v>db.insert({'answer_id1': 9, 'answer_id2': 11, 'text': 'すまおうだけで良い？', 'answer_id': 4})</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2857,14 +2836,14 @@
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D38">
         <v>4</v>
       </c>
       <c r="F38" t="str">
         <f t="shared" si="0"/>
-        <v>db.insert({'answer_id2': 9, 'answer_id1': 11, 'text': '他にもサービス登録するの', 'answer_id': 4})</v>
+        <v>db.insert({'answer_id1': 9, 'answer_id2': 11, 'text': '他にもサービス登録するの', 'answer_id': 4})</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2875,14 +2854,14 @@
         <v>12</v>
       </c>
       <c r="C39" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D39">
         <v>5</v>
       </c>
       <c r="F39" t="str">
         <f t="shared" si="0"/>
-        <v>db.insert({'answer_id2': 9, 'answer_id1': 12, 'text': 'どんな機能？', 'answer_id': 5})</v>
+        <v>db.insert({'answer_id1': 9, 'answer_id2': 12, 'text': 'どんな機能？', 'answer_id': 5})</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2893,14 +2872,14 @@
         <v>12</v>
       </c>
       <c r="C40" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D40">
         <v>5</v>
       </c>
       <c r="F40" t="str">
         <f t="shared" si="0"/>
-        <v>db.insert({'answer_id2': 9, 'answer_id1': 12, 'text': 'どんなメリットがあるの？', 'answer_id': 5})</v>
+        <v>db.insert({'answer_id1': 9, 'answer_id2': 12, 'text': 'どんなメリットがあるの？', 'answer_id': 5})</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2911,14 +2890,14 @@
         <v>12</v>
       </c>
       <c r="C41" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D41">
         <v>5</v>
       </c>
       <c r="F41" t="str">
         <f t="shared" si="0"/>
-        <v>db.insert({'answer_id2': 9, 'answer_id1': 12, 'text': '何してくれるの', 'answer_id': 5})</v>
+        <v>db.insert({'answer_id1': 9, 'answer_id2': 12, 'text': '何してくれるの', 'answer_id': 5})</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2929,14 +2908,14 @@
         <v>12</v>
       </c>
       <c r="C42" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D42">
         <v>5</v>
       </c>
       <c r="F42" t="str">
         <f t="shared" si="0"/>
-        <v>db.insert({'answer_id2': 9, 'answer_id1': 12, 'text': 'どんなもの', 'answer_id': 5})</v>
+        <v>db.insert({'answer_id1': 9, 'answer_id2': 12, 'text': 'どんなもの', 'answer_id': 5})</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2947,14 +2926,14 @@
         <v>12</v>
       </c>
       <c r="C43" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D43">
         <v>5</v>
       </c>
       <c r="F43" t="str">
         <f t="shared" si="0"/>
-        <v>db.insert({'answer_id2': 9, 'answer_id1': 12, 'text': '何それ', 'answer_id': 5})</v>
+        <v>db.insert({'answer_id1': 9, 'answer_id2': 12, 'text': '何それ', 'answer_id': 5})</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2965,14 +2944,14 @@
         <v>12</v>
       </c>
       <c r="C44" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D44">
         <v>5</v>
       </c>
       <c r="F44" t="str">
         <f t="shared" si="0"/>
-        <v>db.insert({'answer_id2': 9, 'answer_id1': 12, 'text': 'どうなる？', 'answer_id': 5})</v>
+        <v>db.insert({'answer_id1': 9, 'answer_id2': 12, 'text': 'どうなる？', 'answer_id': 5})</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2983,14 +2962,14 @@
         <v>12</v>
       </c>
       <c r="C45" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D45">
         <v>5</v>
       </c>
       <c r="F45" t="str">
         <f t="shared" si="0"/>
-        <v>db.insert({'answer_id2': 9, 'answer_id1': 12, 'text': 'どうなるの？', 'answer_id': 5})</v>
+        <v>db.insert({'answer_id1': 9, 'answer_id2': 12, 'text': 'どうなるの？', 'answer_id': 5})</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -3001,14 +2980,14 @@
         <v>12</v>
       </c>
       <c r="C46" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D46">
         <v>5</v>
       </c>
       <c r="F46" t="str">
         <f t="shared" si="0"/>
-        <v>db.insert({'answer_id2': 9, 'answer_id1': 12, 'text': 'どんな感じ？', 'answer_id': 5})</v>
+        <v>db.insert({'answer_id1': 9, 'answer_id2': 12, 'text': 'どんな感じ？', 'answer_id': 5})</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -3019,14 +2998,14 @@
         <v>12</v>
       </c>
       <c r="C47" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D47">
         <v>5</v>
       </c>
       <c r="F47" t="str">
         <f t="shared" si="0"/>
-        <v>db.insert({'answer_id2': 9, 'answer_id1': 12, 'text': 'どのような機能？', 'answer_id': 5})</v>
+        <v>db.insert({'answer_id1': 9, 'answer_id2': 12, 'text': 'どのような機能？', 'answer_id': 5})</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -3037,14 +3016,14 @@
         <v>12</v>
       </c>
       <c r="C48" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D48">
         <v>6</v>
       </c>
       <c r="F48" t="str">
         <f t="shared" si="0"/>
-        <v>db.insert({'answer_id2': 9, 'answer_id1': 12, 'text': 'マニュアル', 'answer_id': 6})</v>
+        <v>db.insert({'answer_id1': 9, 'answer_id2': 12, 'text': 'マニュアル', 'answer_id': 6})</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -3055,14 +3034,14 @@
         <v>12</v>
       </c>
       <c r="C49" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D49">
         <v>6</v>
       </c>
       <c r="F49" t="str">
         <f t="shared" si="0"/>
-        <v>db.insert({'answer_id2': 9, 'answer_id1': 12, 'text': '作り方は？', 'answer_id': 6})</v>
+        <v>db.insert({'answer_id1': 9, 'answer_id2': 12, 'text': '作り方は？', 'answer_id': 6})</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -3073,14 +3052,14 @@
         <v>12</v>
       </c>
       <c r="C50" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D50">
         <v>6</v>
       </c>
       <c r="F50" t="str">
         <f t="shared" si="0"/>
-        <v>db.insert({'answer_id2': 9, 'answer_id1': 12, 'text': 'どうやって作るの？', 'answer_id': 6})</v>
+        <v>db.insert({'answer_id1': 9, 'answer_id2': 12, 'text': 'どうやって作るの？', 'answer_id': 6})</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -3091,14 +3070,14 @@
         <v>12</v>
       </c>
       <c r="C51" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D51">
         <v>6</v>
       </c>
       <c r="F51" t="str">
         <f t="shared" si="0"/>
-        <v>db.insert({'answer_id2': 9, 'answer_id1': 12, 'text': '作り方わからない', 'answer_id': 6})</v>
+        <v>db.insert({'answer_id1': 9, 'answer_id2': 12, 'text': '作り方わからない', 'answer_id': 6})</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -3109,14 +3088,14 @@
         <v>12</v>
       </c>
       <c r="C52" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D52">
         <v>6</v>
       </c>
       <c r="F52" t="str">
         <f t="shared" si="0"/>
-        <v>db.insert({'answer_id2': 9, 'answer_id1': 12, 'text': '教えて', 'answer_id': 6})</v>
+        <v>db.insert({'answer_id1': 9, 'answer_id2': 12, 'text': '教えて', 'answer_id': 6})</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -3127,14 +3106,14 @@
         <v>12</v>
       </c>
       <c r="C53" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D53">
         <v>6</v>
       </c>
       <c r="F53" t="str">
         <f t="shared" si="0"/>
-        <v>db.insert({'answer_id2': 9, 'answer_id1': 12, 'text': '作り方教えて', 'answer_id': 6})</v>
+        <v>db.insert({'answer_id1': 9, 'answer_id2': 12, 'text': '作り方教えて', 'answer_id': 6})</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -3145,14 +3124,14 @@
         <v>12</v>
       </c>
       <c r="C54" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D54">
         <v>6</v>
       </c>
       <c r="F54" t="str">
         <f t="shared" si="0"/>
-        <v>db.insert({'answer_id2': 9, 'answer_id1': 12, 'text': 'どうやってつくればいいの', 'answer_id': 6})</v>
+        <v>db.insert({'answer_id1': 9, 'answer_id2': 12, 'text': 'どうやってつくればいいの', 'answer_id': 6})</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -3163,14 +3142,14 @@
         <v>12</v>
       </c>
       <c r="C55" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D55">
         <v>6</v>
       </c>
       <c r="F55" t="str">
         <f t="shared" si="0"/>
-        <v>db.insert({'answer_id2': 9, 'answer_id1': 12, 'text': 'どうやってつくるか教えて', 'answer_id': 6})</v>
+        <v>db.insert({'answer_id1': 9, 'answer_id2': 12, 'text': 'どうやってつくるか教えて', 'answer_id': 6})</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -3181,14 +3160,14 @@
         <v>12</v>
       </c>
       <c r="C56" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D56">
         <v>6</v>
       </c>
       <c r="F56" t="str">
         <f t="shared" si="0"/>
-        <v>db.insert({'answer_id2': 9, 'answer_id1': 12, 'text': 'どうやるの', 'answer_id': 6})</v>
+        <v>db.insert({'answer_id1': 9, 'answer_id2': 12, 'text': 'どうやるの', 'answer_id': 6})</v>
       </c>
     </row>
     <row r="70" spans="2:3">

--- a/learning/data_sample.xlsx
+++ b/learning/data_sample.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="0" windowWidth="33600" windowHeight="20540" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="-80" yWindow="0" windowWidth="33600" windowHeight="20540" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="質問マスタ" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="106">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -615,6 +615,137 @@
   </si>
   <si>
     <t>answer_id2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sumarou</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SUMAOU</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>すまおうについて</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SUMAOUについて知りたい</t>
+    <rPh sb="10" eb="11">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無料お試し</t>
+    <rPh sb="0" eb="2">
+      <t>ムリョウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>タメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お試し</t>
+    <rPh sb="1" eb="2">
+      <t>タメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無料</t>
+    <rPh sb="0" eb="2">
+      <t>ムリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無料？</t>
+    <rPh sb="0" eb="2">
+      <t>ムリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おためし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>むりょう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>むりょうおためし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スマホ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スマホサイト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スマホについて</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>すまほ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>すまほさいと</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スマートフォン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>すまーとふぉん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スマートホン対応</t>
+    <rPh sb="6" eb="8">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スマホサイトをつくる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無料で試せる？</t>
+    <rPh sb="0" eb="2">
+      <t>ムリョウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>タメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無料で試用できる？</t>
+    <rPh sb="0" eb="2">
+      <t>ムリョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無料で使えるのかな</t>
+    <rPh sb="0" eb="2">
+      <t>ムリョウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ツカ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -674,7 +805,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="252">
+  <cellStyleXfs count="286">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -782,6 +913,40 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -936,7 +1101,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="252">
+  <cellStyles count="286">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="108" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="110" builtinId="8" hidden="1"/>
@@ -1010,6 +1175,23 @@
     <cellStyle name="ハイパーリンク" xfId="246" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="248" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="250" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="252" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="254" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="256" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="258" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="260" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="262" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="264" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="266" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="268" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="270" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="272" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="274" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="276" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="278" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="280" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="282" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="284" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="3" builtinId="9" hidden="1"/>
@@ -1189,6 +1371,23 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="247" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="249" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="251" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="253" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="255" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="257" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="259" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="261" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="263" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="265" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="267" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="269" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="271" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="273" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="275" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="277" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="279" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="281" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="283" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="285" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1520,7 +1719,7 @@
   <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1952,8 +2151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -2150,10 +2349,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F232"/>
+  <dimension ref="A1:F255"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="A8:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -2182,416 +2381,416 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B2">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
       <c r="F2" t="str">
-        <f>"db.insert({'answer_id1': "&amp;A2&amp;", 'answer_id2': "&amp;B2&amp;", 'text': '"&amp;C2&amp;"', 'answer_id': "&amp;D2&amp;"})"</f>
-        <v>db.insert({'answer_id1': 9, 'answer_id2': 10, 'text': 'SUMAOUってどういうもの？', 'answer_id': 1})</v>
+        <f t="shared" ref="F2:F24" si="0">"db.insert({'answer_id1': "&amp;A2&amp;", 'answer_id2': "&amp;B2&amp;", 'text': '"&amp;C2&amp;"', 'answer_id': "&amp;D2&amp;"})"</f>
+        <v>db.insert({'answer_id1': 0, 'answer_id2': 9, 'text': 'sumarou', 'answer_id': 10})</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B3">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
       <c r="F3" t="str">
-        <f t="shared" ref="F3:F56" si="0">"db.insert({'answer_id1': "&amp;A3&amp;", 'answer_id2': "&amp;B3&amp;", 'text': '"&amp;C3&amp;"', 'answer_id': "&amp;D3&amp;"})"</f>
-        <v>db.insert({'answer_id1': 9, 'answer_id2': 10, 'text': 'どういうものなの？', 'answer_id': 1})</v>
+        <f t="shared" si="0"/>
+        <v>db.insert({'answer_id1': 0, 'answer_id2': 9, 'text': 'SUMAOU', 'answer_id': 10})</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B4">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4">
         <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="0"/>
-        <v>db.insert({'answer_id1': 9, 'answer_id2': 10, 'text': 'なにそれ？', 'answer_id': 1})</v>
+        <v>db.insert({'answer_id1': 0, 'answer_id2': 9, 'text': 'すまおうについて', 'answer_id': 10})</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B5">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5">
         <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="0"/>
-        <v>db.insert({'answer_id1': 9, 'answer_id2': 10, 'text': '詳しく教えて', 'answer_id': 1})</v>
+        <v>db.insert({'answer_id1': 0, 'answer_id2': 9, 'text': 'SUMAOUについて知りたい', 'answer_id': 10})</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="0"/>
-        <v>db.insert({'answer_id1': 9, 'answer_id2': 10, 'text': '教えてください', 'answer_id': 1})</v>
+        <v>db.insert({'answer_id1': 0, 'answer_id2': 9, 'text': '無料お試し', 'answer_id': 11})</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="0"/>
-        <v>db.insert({'answer_id1': 9, 'answer_id2': 10, 'text': 'どういうサービス', 'answer_id': 1})</v>
+        <v>db.insert({'answer_id1': 0, 'answer_id2': 9, 'text': 'お試し', 'answer_id': 11})</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B8">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>105</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F8" t="str">
-        <f t="shared" si="0"/>
-        <v>db.insert({'answer_id1': 9, 'answer_id2': 10, 'text': '知らないんだけど', 'answer_id': 1})</v>
+        <f t="shared" ref="F8:F9" si="1">"db.insert({'answer_id1': "&amp;A8&amp;", 'answer_id2': "&amp;B8&amp;", 'text': '"&amp;C8&amp;"', 'answer_id': "&amp;D8&amp;"})"</f>
+        <v>db.insert({'answer_id1': 0, 'answer_id2': 9, 'text': '無料で使えるのかな', 'answer_id': 11})</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B9">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F9" t="str">
-        <f t="shared" si="0"/>
-        <v>db.insert({'answer_id1': 9, 'answer_id2': 10, 'text': '知らない', 'answer_id': 1})</v>
+        <f t="shared" si="1"/>
+        <v>db.insert({'answer_id1': 0, 'answer_id2': 9, 'text': '無料で試用できる？', 'answer_id': 11})</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>103</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F10" t="str">
-        <f t="shared" si="0"/>
-        <v>db.insert({'answer_id1': 9, 'answer_id2': 10, 'text': '聞いたことない', 'answer_id': 1})</v>
+        <f t="shared" ref="F10" si="2">"db.insert({'answer_id1': "&amp;A10&amp;", 'answer_id2': "&amp;B10&amp;", 'text': '"&amp;C10&amp;"', 'answer_id': "&amp;D10&amp;"})"</f>
+        <v>db.insert({'answer_id1': 0, 'answer_id2': 9, 'text': '無料で試せる？', 'answer_id': 11})</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="0"/>
-        <v>db.insert({'answer_id1': 9, 'answer_id2': 10, 'text': '何なの？', 'answer_id': 1})</v>
+        <v>db.insert({'answer_id1': 0, 'answer_id2': 9, 'text': '無料', 'answer_id': 11})</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="0"/>
-        <v>db.insert({'answer_id1': 9, 'answer_id2': 10, 'text': '何それ', 'answer_id': 1})</v>
+        <v>db.insert({'answer_id1': 0, 'answer_id2': 9, 'text': '無料？', 'answer_id': 11})</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B13">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="0"/>
-        <v>db.insert({'answer_id1': 9, 'answer_id2': 10, 'text': 'くわしくおしえて', 'answer_id': 1})</v>
+        <v>db.insert({'answer_id1': 0, 'answer_id2': 9, 'text': 'おためし', 'answer_id': 11})</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B14">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>92</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="0"/>
-        <v>db.insert({'answer_id1': 9, 'answer_id2': 10, 'text': 'お試し期間ある？', 'answer_id': 2})</v>
+        <v>db.insert({'answer_id1': 0, 'answer_id2': 9, 'text': 'むりょう', 'answer_id': 11})</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B15">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="0"/>
-        <v>db.insert({'answer_id1': 9, 'answer_id2': 10, 'text': 'お試し', 'answer_id': 2})</v>
+        <v>db.insert({'answer_id1': 0, 'answer_id2': 9, 'text': 'むりょうおためし', 'answer_id': 11})</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B16">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>94</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="0"/>
-        <v>db.insert({'answer_id1': 9, 'answer_id2': 10, 'text': '試用期間', 'answer_id': 2})</v>
+        <v>db.insert({'answer_id1': 0, 'answer_id2': 9, 'text': 'スマホ', 'answer_id': 12})</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B17">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="0"/>
-        <v>db.insert({'answer_id1': 9, 'answer_id2': 10, 'text': '試用出来る？', 'answer_id': 2})</v>
+        <v>db.insert({'answer_id1': 0, 'answer_id2': 9, 'text': 'スマホサイト', 'answer_id': 12})</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B18">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="0"/>
-        <v>db.insert({'answer_id1': 9, 'answer_id2': 10, 'text': '試せる？', 'answer_id': 2})</v>
+        <v>db.insert({'answer_id1': 0, 'answer_id2': 9, 'text': 'スマホについて', 'answer_id': 12})</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B19">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="0"/>
-        <v>db.insert({'answer_id1': 9, 'answer_id2': 10, 'text': 'ためせる？', 'answer_id': 2})</v>
+        <v>db.insert({'answer_id1': 0, 'answer_id2': 9, 'text': 'すまほ', 'answer_id': 12})</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B20">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="0"/>
-        <v>db.insert({'answer_id1': 9, 'answer_id2': 10, 'text': '無料', 'answer_id': 2})</v>
+        <v>db.insert({'answer_id1': 0, 'answer_id2': 9, 'text': 'すまほさいと', 'answer_id': 12})</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B21">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="0"/>
-        <v>db.insert({'answer_id1': 9, 'answer_id2': 10, 'text': '無料で使ってみたい', 'answer_id': 2})</v>
+        <v>db.insert({'answer_id1': 0, 'answer_id2': 9, 'text': 'スマートフォン', 'answer_id': 12})</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B22">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="0"/>
-        <v>db.insert({'answer_id1': 9, 'answer_id2': 10, 'text': '無料お試し期間って？', 'answer_id': 2})</v>
+        <v>db.insert({'answer_id1': 0, 'answer_id2': 9, 'text': 'すまーとふぉん', 'answer_id': 12})</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B23">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="0"/>
-        <v>db.insert({'answer_id1': 9, 'answer_id2': 10, 'text': '使ってみたい', 'answer_id': 2})</v>
+        <v>db.insert({'answer_id1': 0, 'answer_id2': 9, 'text': 'スマートホン対応', 'answer_id': 12})</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B24">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="D24">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" si="0"/>
-        <v>db.insert({'answer_id1': 9, 'answer_id2': 10, 'text': '最大二ヶ月って？', 'answer_id': 3})</v>
+        <v>db.insert({'answer_id1': 0, 'answer_id2': 9, 'text': 'スマホサイトをつくる', 'answer_id': 12})</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2599,17 +2798,17 @@
         <v>9</v>
       </c>
       <c r="B25">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="D25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F25" t="str">
-        <f t="shared" si="0"/>
-        <v>db.insert({'answer_id1': 9, 'answer_id2': 11, 'text': '無料？', 'answer_id': 3})</v>
+        <f>"db.insert({'answer_id1': "&amp;A25&amp;", 'answer_id2': "&amp;B25&amp;", 'text': '"&amp;C25&amp;"', 'answer_id': "&amp;D25&amp;"})"</f>
+        <v>db.insert({'answer_id1': 9, 'answer_id2': 10, 'text': 'SUMAOUってどういうもの？', 'answer_id': 1})</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2617,17 +2816,17 @@
         <v>9</v>
       </c>
       <c r="B26">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="D26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26" t="str">
-        <f t="shared" si="0"/>
-        <v>db.insert({'answer_id1': 9, 'answer_id2': 11, 'text': '無料で試せるの？', 'answer_id': 3})</v>
+        <f t="shared" ref="F26:F79" si="3">"db.insert({'answer_id1': "&amp;A26&amp;", 'answer_id2': "&amp;B26&amp;", 'text': '"&amp;C26&amp;"', 'answer_id': "&amp;D26&amp;"})"</f>
+        <v>db.insert({'answer_id1': 9, 'answer_id2': 10, 'text': 'どういうものなの？', 'answer_id': 1})</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2635,17 +2834,17 @@
         <v>9</v>
       </c>
       <c r="B27">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27" t="str">
-        <f t="shared" si="0"/>
-        <v>db.insert({'answer_id1': 9, 'answer_id2': 11, 'text': '試せる？', 'answer_id': 3})</v>
+        <f t="shared" si="3"/>
+        <v>db.insert({'answer_id1': 9, 'answer_id2': 10, 'text': 'なにそれ？', 'answer_id': 1})</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2653,17 +2852,17 @@
         <v>9</v>
       </c>
       <c r="B28">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C28" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="D28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F28" t="str">
-        <f t="shared" si="0"/>
-        <v>db.insert({'answer_id1': 9, 'answer_id2': 11, 'text': '無料で使える？', 'answer_id': 3})</v>
+        <f t="shared" si="3"/>
+        <v>db.insert({'answer_id1': 9, 'answer_id2': 10, 'text': '詳しく教えて', 'answer_id': 1})</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2671,17 +2870,17 @@
         <v>9</v>
       </c>
       <c r="B29">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C29" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="D29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F29" t="str">
-        <f t="shared" si="0"/>
-        <v>db.insert({'answer_id1': 9, 'answer_id2': 11, 'text': '無料ですか？', 'answer_id': 3})</v>
+        <f t="shared" si="3"/>
+        <v>db.insert({'answer_id1': 9, 'answer_id2': 10, 'text': '教えてください', 'answer_id': 1})</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2689,17 +2888,17 @@
         <v>9</v>
       </c>
       <c r="B30">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C30" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="D30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F30" t="str">
-        <f t="shared" si="0"/>
-        <v>db.insert({'answer_id1': 9, 'answer_id2': 11, 'text': '有料？', 'answer_id': 3})</v>
+        <f t="shared" si="3"/>
+        <v>db.insert({'answer_id1': 9, 'answer_id2': 10, 'text': 'どういうサービス', 'answer_id': 1})</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2707,17 +2906,17 @@
         <v>9</v>
       </c>
       <c r="B31">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C31" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="D31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F31" t="str">
-        <f t="shared" si="0"/>
-        <v>db.insert({'answer_id1': 9, 'answer_id2': 11, 'text': '無料でいける？', 'answer_id': 3})</v>
+        <f t="shared" si="3"/>
+        <v>db.insert({'answer_id1': 9, 'answer_id2': 10, 'text': '知らないんだけど', 'answer_id': 1})</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2725,17 +2924,17 @@
         <v>9</v>
       </c>
       <c r="B32">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C32" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="D32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F32" t="str">
-        <f t="shared" si="0"/>
-        <v>db.insert({'answer_id1': 9, 'answer_id2': 11, 'text': '無料2ヶ月ってどういう意味？', 'answer_id': 3})</v>
+        <f t="shared" si="3"/>
+        <v>db.insert({'answer_id1': 9, 'answer_id2': 10, 'text': '知らない', 'answer_id': 1})</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2743,17 +2942,17 @@
         <v>9</v>
       </c>
       <c r="B33">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C33" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="D33">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F33" t="str">
-        <f t="shared" si="0"/>
-        <v>db.insert({'answer_id1': 9, 'answer_id2': 11, 'text': '他サービスの申し込みって必要？', 'answer_id': 4})</v>
+        <f t="shared" si="3"/>
+        <v>db.insert({'answer_id1': 9, 'answer_id2': 10, 'text': '聞いたことない', 'answer_id': 1})</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2761,17 +2960,17 @@
         <v>9</v>
       </c>
       <c r="B34">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C34" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="D34">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F34" t="str">
-        <f t="shared" si="0"/>
-        <v>db.insert({'answer_id1': 9, 'answer_id2': 11, 'text': '他のサービス', 'answer_id': 4})</v>
+        <f t="shared" si="3"/>
+        <v>db.insert({'answer_id1': 9, 'answer_id2': 10, 'text': '何なの？', 'answer_id': 1})</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2779,17 +2978,17 @@
         <v>9</v>
       </c>
       <c r="B35">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C35" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="D35">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F35" t="str">
-        <f t="shared" si="0"/>
-        <v>db.insert({'answer_id1': 9, 'answer_id2': 11, 'text': 'SUMAOUだけでいける？', 'answer_id': 4})</v>
+        <f t="shared" si="3"/>
+        <v>db.insert({'answer_id1': 9, 'answer_id2': 10, 'text': '何それ', 'answer_id': 1})</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2797,17 +2996,17 @@
         <v>9</v>
       </c>
       <c r="B36">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C36" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="D36">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F36" t="str">
-        <f t="shared" si="0"/>
-        <v>db.insert({'answer_id1': 9, 'answer_id2': 11, 'text': 'スマオウだけでいける？', 'answer_id': 4})</v>
+        <f t="shared" si="3"/>
+        <v>db.insert({'answer_id1': 9, 'answer_id2': 10, 'text': 'くわしくおしえて', 'answer_id': 1})</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2815,17 +3014,17 @@
         <v>9</v>
       </c>
       <c r="B37">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C37" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="D37">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F37" t="str">
-        <f t="shared" si="0"/>
-        <v>db.insert({'answer_id1': 9, 'answer_id2': 11, 'text': 'すまおうだけで良い？', 'answer_id': 4})</v>
+        <f t="shared" si="3"/>
+        <v>db.insert({'answer_id1': 9, 'answer_id2': 10, 'text': 'お試し期間ある？', 'answer_id': 2})</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2833,17 +3032,17 @@
         <v>9</v>
       </c>
       <c r="B38">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C38" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="D38">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F38" t="str">
-        <f t="shared" si="0"/>
-        <v>db.insert({'answer_id1': 9, 'answer_id2': 11, 'text': '他にもサービス登録するの', 'answer_id': 4})</v>
+        <f t="shared" si="3"/>
+        <v>db.insert({'answer_id1': 9, 'answer_id2': 10, 'text': 'お試し', 'answer_id': 2})</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2851,17 +3050,17 @@
         <v>9</v>
       </c>
       <c r="B39">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C39" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="D39">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F39" t="str">
-        <f t="shared" si="0"/>
-        <v>db.insert({'answer_id1': 9, 'answer_id2': 12, 'text': 'どんな機能？', 'answer_id': 5})</v>
+        <f t="shared" si="3"/>
+        <v>db.insert({'answer_id1': 9, 'answer_id2': 10, 'text': '試用期間', 'answer_id': 2})</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2869,17 +3068,17 @@
         <v>9</v>
       </c>
       <c r="B40">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C40" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="D40">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F40" t="str">
-        <f t="shared" si="0"/>
-        <v>db.insert({'answer_id1': 9, 'answer_id2': 12, 'text': 'どんなメリットがあるの？', 'answer_id': 5})</v>
+        <f t="shared" si="3"/>
+        <v>db.insert({'answer_id1': 9, 'answer_id2': 10, 'text': '試用出来る？', 'answer_id': 2})</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2887,17 +3086,17 @@
         <v>9</v>
       </c>
       <c r="B41">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C41" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="D41">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F41" t="str">
-        <f t="shared" si="0"/>
-        <v>db.insert({'answer_id1': 9, 'answer_id2': 12, 'text': '何してくれるの', 'answer_id': 5})</v>
+        <f t="shared" si="3"/>
+        <v>db.insert({'answer_id1': 9, 'answer_id2': 10, 'text': '試せる？', 'answer_id': 2})</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2905,17 +3104,17 @@
         <v>9</v>
       </c>
       <c r="B42">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C42" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="D42">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F42" t="str">
-        <f t="shared" si="0"/>
-        <v>db.insert({'answer_id1': 9, 'answer_id2': 12, 'text': 'どんなもの', 'answer_id': 5})</v>
+        <f t="shared" si="3"/>
+        <v>db.insert({'answer_id1': 9, 'answer_id2': 10, 'text': 'ためせる？', 'answer_id': 2})</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2923,17 +3122,17 @@
         <v>9</v>
       </c>
       <c r="B43">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C43" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="D43">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F43" t="str">
-        <f t="shared" si="0"/>
-        <v>db.insert({'answer_id1': 9, 'answer_id2': 12, 'text': '何それ', 'answer_id': 5})</v>
+        <f t="shared" si="3"/>
+        <v>db.insert({'answer_id1': 9, 'answer_id2': 10, 'text': '無料', 'answer_id': 2})</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2941,17 +3140,17 @@
         <v>9</v>
       </c>
       <c r="B44">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C44" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="D44">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F44" t="str">
-        <f t="shared" si="0"/>
-        <v>db.insert({'answer_id1': 9, 'answer_id2': 12, 'text': 'どうなる？', 'answer_id': 5})</v>
+        <f t="shared" si="3"/>
+        <v>db.insert({'answer_id1': 9, 'answer_id2': 10, 'text': '無料で使ってみたい', 'answer_id': 2})</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2959,17 +3158,17 @@
         <v>9</v>
       </c>
       <c r="B45">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C45" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="D45">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F45" t="str">
-        <f t="shared" si="0"/>
-        <v>db.insert({'answer_id1': 9, 'answer_id2': 12, 'text': 'どうなるの？', 'answer_id': 5})</v>
+        <f t="shared" si="3"/>
+        <v>db.insert({'answer_id1': 9, 'answer_id2': 10, 'text': '無料お試し期間って？', 'answer_id': 2})</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2977,17 +3176,17 @@
         <v>9</v>
       </c>
       <c r="B46">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C46" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="D46">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F46" t="str">
-        <f t="shared" si="0"/>
-        <v>db.insert({'answer_id1': 9, 'answer_id2': 12, 'text': 'どんな感じ？', 'answer_id': 5})</v>
+        <f t="shared" si="3"/>
+        <v>db.insert({'answer_id1': 9, 'answer_id2': 10, 'text': '使ってみたい', 'answer_id': 2})</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2995,17 +3194,17 @@
         <v>9</v>
       </c>
       <c r="B47">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C47" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="D47">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F47" t="str">
-        <f t="shared" si="0"/>
-        <v>db.insert({'answer_id1': 9, 'answer_id2': 12, 'text': 'どのような機能？', 'answer_id': 5})</v>
+        <f t="shared" si="3"/>
+        <v>db.insert({'answer_id1': 9, 'answer_id2': 10, 'text': '最大二ヶ月って？', 'answer_id': 3})</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -3013,17 +3212,17 @@
         <v>9</v>
       </c>
       <c r="B48">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C48" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="D48">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F48" t="str">
-        <f t="shared" si="0"/>
-        <v>db.insert({'answer_id1': 9, 'answer_id2': 12, 'text': 'マニュアル', 'answer_id': 6})</v>
+        <f t="shared" si="3"/>
+        <v>db.insert({'answer_id1': 9, 'answer_id2': 11, 'text': '無料？', 'answer_id': 3})</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -3031,17 +3230,17 @@
         <v>9</v>
       </c>
       <c r="B49">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C49" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="D49">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F49" t="str">
-        <f t="shared" si="0"/>
-        <v>db.insert({'answer_id1': 9, 'answer_id2': 12, 'text': '作り方は？', 'answer_id': 6})</v>
+        <f t="shared" si="3"/>
+        <v>db.insert({'answer_id1': 9, 'answer_id2': 11, 'text': '無料で試せるの？', 'answer_id': 3})</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -3049,17 +3248,17 @@
         <v>9</v>
       </c>
       <c r="B50">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C50" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="D50">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F50" t="str">
-        <f t="shared" si="0"/>
-        <v>db.insert({'answer_id1': 9, 'answer_id2': 12, 'text': 'どうやって作るの？', 'answer_id': 6})</v>
+        <f t="shared" si="3"/>
+        <v>db.insert({'answer_id1': 9, 'answer_id2': 11, 'text': '試せる？', 'answer_id': 3})</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -3067,17 +3266,17 @@
         <v>9</v>
       </c>
       <c r="B51">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C51" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="D51">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F51" t="str">
-        <f t="shared" si="0"/>
-        <v>db.insert({'answer_id1': 9, 'answer_id2': 12, 'text': '作り方わからない', 'answer_id': 6})</v>
+        <f t="shared" si="3"/>
+        <v>db.insert({'answer_id1': 9, 'answer_id2': 11, 'text': '無料で使える？', 'answer_id': 3})</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -3085,17 +3284,17 @@
         <v>9</v>
       </c>
       <c r="B52">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C52" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="D52">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F52" t="str">
-        <f t="shared" si="0"/>
-        <v>db.insert({'answer_id1': 9, 'answer_id2': 12, 'text': '教えて', 'answer_id': 6})</v>
+        <f t="shared" si="3"/>
+        <v>db.insert({'answer_id1': 9, 'answer_id2': 11, 'text': '無料ですか？', 'answer_id': 3})</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -3103,17 +3302,17 @@
         <v>9</v>
       </c>
       <c r="B53">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C53" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="D53">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F53" t="str">
-        <f t="shared" si="0"/>
-        <v>db.insert({'answer_id1': 9, 'answer_id2': 12, 'text': '作り方教えて', 'answer_id': 6})</v>
+        <f t="shared" si="3"/>
+        <v>db.insert({'answer_id1': 9, 'answer_id2': 11, 'text': '有料？', 'answer_id': 3})</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -3121,17 +3320,17 @@
         <v>9</v>
       </c>
       <c r="B54">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C54" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="D54">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F54" t="str">
-        <f t="shared" si="0"/>
-        <v>db.insert({'answer_id1': 9, 'answer_id2': 12, 'text': 'どうやってつくればいいの', 'answer_id': 6})</v>
+        <f t="shared" si="3"/>
+        <v>db.insert({'answer_id1': 9, 'answer_id2': 11, 'text': '無料でいける？', 'answer_id': 3})</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -3139,17 +3338,17 @@
         <v>9</v>
       </c>
       <c r="B55">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C55" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="D55">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F55" t="str">
-        <f t="shared" si="0"/>
-        <v>db.insert({'answer_id1': 9, 'answer_id2': 12, 'text': 'どうやってつくるか教えて', 'answer_id': 6})</v>
+        <f t="shared" si="3"/>
+        <v>db.insert({'answer_id1': 9, 'answer_id2': 11, 'text': '無料2ヶ月ってどういう意味？', 'answer_id': 3})</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -3157,78 +3356,432 @@
         <v>9</v>
       </c>
       <c r="B56">
+        <v>11</v>
+      </c>
+      <c r="C56" t="s">
+        <v>51</v>
+      </c>
+      <c r="D56">
+        <v>4</v>
+      </c>
+      <c r="F56" t="str">
+        <f t="shared" si="3"/>
+        <v>db.insert({'answer_id1': 9, 'answer_id2': 11, 'text': '他サービスの申し込みって必要？', 'answer_id': 4})</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57">
+        <v>9</v>
+      </c>
+      <c r="B57">
+        <v>11</v>
+      </c>
+      <c r="C57" t="s">
+        <v>52</v>
+      </c>
+      <c r="D57">
+        <v>4</v>
+      </c>
+      <c r="F57" t="str">
+        <f t="shared" si="3"/>
+        <v>db.insert({'answer_id1': 9, 'answer_id2': 11, 'text': '他のサービス', 'answer_id': 4})</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58">
+        <v>9</v>
+      </c>
+      <c r="B58">
+        <v>11</v>
+      </c>
+      <c r="C58" t="s">
+        <v>53</v>
+      </c>
+      <c r="D58">
+        <v>4</v>
+      </c>
+      <c r="F58" t="str">
+        <f t="shared" si="3"/>
+        <v>db.insert({'answer_id1': 9, 'answer_id2': 11, 'text': 'SUMAOUだけでいける？', 'answer_id': 4})</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59">
+        <v>9</v>
+      </c>
+      <c r="B59">
+        <v>11</v>
+      </c>
+      <c r="C59" t="s">
+        <v>54</v>
+      </c>
+      <c r="D59">
+        <v>4</v>
+      </c>
+      <c r="F59" t="str">
+        <f t="shared" si="3"/>
+        <v>db.insert({'answer_id1': 9, 'answer_id2': 11, 'text': 'スマオウだけでいける？', 'answer_id': 4})</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60">
+        <v>9</v>
+      </c>
+      <c r="B60">
+        <v>11</v>
+      </c>
+      <c r="C60" t="s">
+        <v>55</v>
+      </c>
+      <c r="D60">
+        <v>4</v>
+      </c>
+      <c r="F60" t="str">
+        <f t="shared" si="3"/>
+        <v>db.insert({'answer_id1': 9, 'answer_id2': 11, 'text': 'すまおうだけで良い？', 'answer_id': 4})</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61">
+        <v>9</v>
+      </c>
+      <c r="B61">
+        <v>11</v>
+      </c>
+      <c r="C61" t="s">
+        <v>56</v>
+      </c>
+      <c r="D61">
+        <v>4</v>
+      </c>
+      <c r="F61" t="str">
+        <f t="shared" si="3"/>
+        <v>db.insert({'answer_id1': 9, 'answer_id2': 11, 'text': '他にもサービス登録するの', 'answer_id': 4})</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62">
+        <v>9</v>
+      </c>
+      <c r="B62">
         <v>12</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C62" t="s">
+        <v>60</v>
+      </c>
+      <c r="D62">
+        <v>5</v>
+      </c>
+      <c r="F62" t="str">
+        <f t="shared" si="3"/>
+        <v>db.insert({'answer_id1': 9, 'answer_id2': 12, 'text': 'どんな機能？', 'answer_id': 5})</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63">
+        <v>9</v>
+      </c>
+      <c r="B63">
+        <v>12</v>
+      </c>
+      <c r="C63" t="s">
+        <v>61</v>
+      </c>
+      <c r="D63">
+        <v>5</v>
+      </c>
+      <c r="F63" t="str">
+        <f t="shared" si="3"/>
+        <v>db.insert({'answer_id1': 9, 'answer_id2': 12, 'text': 'どんなメリットがあるの？', 'answer_id': 5})</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64">
+        <v>9</v>
+      </c>
+      <c r="B64">
+        <v>12</v>
+      </c>
+      <c r="C64" t="s">
+        <v>62</v>
+      </c>
+      <c r="D64">
+        <v>5</v>
+      </c>
+      <c r="F64" t="str">
+        <f t="shared" si="3"/>
+        <v>db.insert({'answer_id1': 9, 'answer_id2': 12, 'text': '何してくれるの', 'answer_id': 5})</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65">
+        <v>9</v>
+      </c>
+      <c r="B65">
+        <v>12</v>
+      </c>
+      <c r="C65" t="s">
+        <v>63</v>
+      </c>
+      <c r="D65">
+        <v>5</v>
+      </c>
+      <c r="F65" t="str">
+        <f t="shared" si="3"/>
+        <v>db.insert({'answer_id1': 9, 'answer_id2': 12, 'text': 'どんなもの', 'answer_id': 5})</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66">
+        <v>9</v>
+      </c>
+      <c r="B66">
+        <v>12</v>
+      </c>
+      <c r="C66" t="s">
+        <v>64</v>
+      </c>
+      <c r="D66">
+        <v>5</v>
+      </c>
+      <c r="F66" t="str">
+        <f t="shared" si="3"/>
+        <v>db.insert({'answer_id1': 9, 'answer_id2': 12, 'text': '何それ', 'answer_id': 5})</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67">
+        <v>9</v>
+      </c>
+      <c r="B67">
+        <v>12</v>
+      </c>
+      <c r="C67" t="s">
+        <v>65</v>
+      </c>
+      <c r="D67">
+        <v>5</v>
+      </c>
+      <c r="F67" t="str">
+        <f t="shared" si="3"/>
+        <v>db.insert({'answer_id1': 9, 'answer_id2': 12, 'text': 'どうなる？', 'answer_id': 5})</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68">
+        <v>9</v>
+      </c>
+      <c r="B68">
+        <v>12</v>
+      </c>
+      <c r="C68" t="s">
+        <v>66</v>
+      </c>
+      <c r="D68">
+        <v>5</v>
+      </c>
+      <c r="F68" t="str">
+        <f t="shared" si="3"/>
+        <v>db.insert({'answer_id1': 9, 'answer_id2': 12, 'text': 'どうなるの？', 'answer_id': 5})</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69">
+        <v>9</v>
+      </c>
+      <c r="B69">
+        <v>12</v>
+      </c>
+      <c r="C69" t="s">
+        <v>67</v>
+      </c>
+      <c r="D69">
+        <v>5</v>
+      </c>
+      <c r="F69" t="str">
+        <f t="shared" si="3"/>
+        <v>db.insert({'answer_id1': 9, 'answer_id2': 12, 'text': 'どんな感じ？', 'answer_id': 5})</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70">
+        <v>9</v>
+      </c>
+      <c r="B70">
+        <v>12</v>
+      </c>
+      <c r="C70" t="s">
+        <v>68</v>
+      </c>
+      <c r="D70">
+        <v>5</v>
+      </c>
+      <c r="F70" t="str">
+        <f t="shared" si="3"/>
+        <v>db.insert({'answer_id1': 9, 'answer_id2': 12, 'text': 'どのような機能？', 'answer_id': 5})</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71">
+        <v>9</v>
+      </c>
+      <c r="B71">
+        <v>12</v>
+      </c>
+      <c r="C71" t="s">
+        <v>69</v>
+      </c>
+      <c r="D71">
+        <v>6</v>
+      </c>
+      <c r="F71" t="str">
+        <f t="shared" si="3"/>
+        <v>db.insert({'answer_id1': 9, 'answer_id2': 12, 'text': 'マニュアル', 'answer_id': 6})</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72">
+        <v>9</v>
+      </c>
+      <c r="B72">
+        <v>12</v>
+      </c>
+      <c r="C72" t="s">
+        <v>70</v>
+      </c>
+      <c r="D72">
+        <v>6</v>
+      </c>
+      <c r="F72" t="str">
+        <f t="shared" si="3"/>
+        <v>db.insert({'answer_id1': 9, 'answer_id2': 12, 'text': '作り方は？', 'answer_id': 6})</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73">
+        <v>9</v>
+      </c>
+      <c r="B73">
+        <v>12</v>
+      </c>
+      <c r="C73" t="s">
+        <v>71</v>
+      </c>
+      <c r="D73">
+        <v>6</v>
+      </c>
+      <c r="F73" t="str">
+        <f t="shared" si="3"/>
+        <v>db.insert({'answer_id1': 9, 'answer_id2': 12, 'text': 'どうやって作るの？', 'answer_id': 6})</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74">
+        <v>9</v>
+      </c>
+      <c r="B74">
+        <v>12</v>
+      </c>
+      <c r="C74" t="s">
+        <v>72</v>
+      </c>
+      <c r="D74">
+        <v>6</v>
+      </c>
+      <c r="F74" t="str">
+        <f t="shared" si="3"/>
+        <v>db.insert({'answer_id1': 9, 'answer_id2': 12, 'text': '作り方わからない', 'answer_id': 6})</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75">
+        <v>9</v>
+      </c>
+      <c r="B75">
+        <v>12</v>
+      </c>
+      <c r="C75" t="s">
+        <v>73</v>
+      </c>
+      <c r="D75">
+        <v>6</v>
+      </c>
+      <c r="F75" t="str">
+        <f t="shared" si="3"/>
+        <v>db.insert({'answer_id1': 9, 'answer_id2': 12, 'text': '教えて', 'answer_id': 6})</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76">
+        <v>9</v>
+      </c>
+      <c r="B76">
+        <v>12</v>
+      </c>
+      <c r="C76" t="s">
+        <v>74</v>
+      </c>
+      <c r="D76">
+        <v>6</v>
+      </c>
+      <c r="F76" t="str">
+        <f t="shared" si="3"/>
+        <v>db.insert({'answer_id1': 9, 'answer_id2': 12, 'text': '作り方教えて', 'answer_id': 6})</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77">
+        <v>9</v>
+      </c>
+      <c r="B77">
+        <v>12</v>
+      </c>
+      <c r="C77" t="s">
+        <v>75</v>
+      </c>
+      <c r="D77">
+        <v>6</v>
+      </c>
+      <c r="F77" t="str">
+        <f t="shared" si="3"/>
+        <v>db.insert({'answer_id1': 9, 'answer_id2': 12, 'text': 'どうやってつくればいいの', 'answer_id': 6})</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78">
+        <v>9</v>
+      </c>
+      <c r="B78">
+        <v>12</v>
+      </c>
+      <c r="C78" t="s">
+        <v>76</v>
+      </c>
+      <c r="D78">
+        <v>6</v>
+      </c>
+      <c r="F78" t="str">
+        <f t="shared" si="3"/>
+        <v>db.insert({'answer_id1': 9, 'answer_id2': 12, 'text': 'どうやってつくるか教えて', 'answer_id': 6})</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79">
+        <v>9</v>
+      </c>
+      <c r="B79">
+        <v>12</v>
+      </c>
+      <c r="C79" t="s">
         <v>77</v>
       </c>
-      <c r="D56">
+      <c r="D79">
         <v>6</v>
       </c>
-      <c r="F56" t="str">
-        <f t="shared" si="0"/>
+      <c r="F79" t="str">
+        <f t="shared" si="3"/>
         <v>db.insert({'answer_id1': 9, 'answer_id2': 12, 'text': 'どうやるの', 'answer_id': 6})</v>
       </c>
-    </row>
-    <row r="70" spans="2:3">
-      <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
-    </row>
-    <row r="71" spans="2:3">
-      <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
-    </row>
-    <row r="72" spans="2:3">
-      <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
-    </row>
-    <row r="73" spans="2:3">
-      <c r="B73" s="3"/>
-      <c r="C73" s="3"/>
-    </row>
-    <row r="74" spans="2:3">
-      <c r="B74" s="3"/>
-      <c r="C74" s="3"/>
-    </row>
-    <row r="75" spans="2:3">
-      <c r="B75" s="3"/>
-      <c r="C75" s="3"/>
-    </row>
-    <row r="76" spans="2:3">
-      <c r="B76" s="3"/>
-      <c r="C76" s="3"/>
-    </row>
-    <row r="77" spans="2:3">
-      <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
-    </row>
-    <row r="78" spans="2:3">
-      <c r="B78" s="3"/>
-      <c r="C78" s="3"/>
-    </row>
-    <row r="79" spans="2:3">
-      <c r="B79" s="3"/>
-      <c r="C79" s="3"/>
-    </row>
-    <row r="80" spans="2:3">
-      <c r="B80" s="3"/>
-      <c r="C80" s="3"/>
-    </row>
-    <row r="81" spans="2:3">
-      <c r="B81" s="3"/>
-      <c r="C81" s="3"/>
-    </row>
-    <row r="82" spans="2:3">
-      <c r="B82" s="3"/>
-      <c r="C82" s="3"/>
-    </row>
-    <row r="83" spans="2:3">
-      <c r="B83" s="3"/>
-      <c r="C83" s="3"/>
-    </row>
-    <row r="84" spans="2:3">
-      <c r="B84" s="3"/>
-      <c r="C84" s="3"/>
     </row>
     <row r="93" spans="2:3">
       <c r="B93" s="3"/>
@@ -3290,38 +3843,6 @@
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
     </row>
-    <row r="108" spans="2:3">
-      <c r="B108" s="3"/>
-      <c r="C108" s="3"/>
-    </row>
-    <row r="109" spans="2:3">
-      <c r="B109" s="3"/>
-      <c r="C109" s="3"/>
-    </row>
-    <row r="110" spans="2:3">
-      <c r="B110" s="3"/>
-      <c r="C110" s="3"/>
-    </row>
-    <row r="111" spans="2:3">
-      <c r="B111" s="3"/>
-      <c r="C111" s="3"/>
-    </row>
-    <row r="112" spans="2:3">
-      <c r="B112" s="3"/>
-      <c r="C112" s="3"/>
-    </row>
-    <row r="113" spans="2:3">
-      <c r="B113" s="3"/>
-      <c r="C113" s="3"/>
-    </row>
-    <row r="114" spans="2:3">
-      <c r="B114" s="3"/>
-      <c r="C114" s="3"/>
-    </row>
-    <row r="115" spans="2:3">
-      <c r="B115" s="3"/>
-      <c r="C115" s="3"/>
-    </row>
     <row r="116" spans="2:3">
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -3471,8 +3992,8 @@
       <c r="C152" s="3"/>
     </row>
     <row r="153" spans="2:3">
-      <c r="B153" s="1"/>
-      <c r="C153" s="1"/>
+      <c r="B153" s="3"/>
+      <c r="C153" s="3"/>
     </row>
     <row r="154" spans="2:3">
       <c r="B154" s="3"/>
@@ -3563,16 +4084,16 @@
       <c r="C175" s="3"/>
     </row>
     <row r="176" spans="2:3">
-      <c r="B176" s="3"/>
-      <c r="C176" s="3"/>
+      <c r="B176" s="1"/>
+      <c r="C176" s="1"/>
     </row>
     <row r="177" spans="2:3">
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
     </row>
     <row r="178" spans="2:3">
-      <c r="B178" s="1"/>
-      <c r="C178" s="1"/>
+      <c r="B178" s="3"/>
+      <c r="C178" s="3"/>
     </row>
     <row r="179" spans="2:3">
       <c r="B179" s="3"/>
@@ -3627,8 +4148,8 @@
       <c r="C191" s="3"/>
     </row>
     <row r="192" spans="2:3">
-      <c r="B192" s="1"/>
-      <c r="C192" s="1"/>
+      <c r="B192" s="3"/>
+      <c r="C192" s="3"/>
     </row>
     <row r="193" spans="2:3">
       <c r="B193" s="3"/>
@@ -3663,8 +4184,8 @@
       <c r="C200" s="3"/>
     </row>
     <row r="201" spans="2:3">
-      <c r="B201" s="3"/>
-      <c r="C201" s="3"/>
+      <c r="B201" s="1"/>
+      <c r="C201" s="1"/>
     </row>
     <row r="202" spans="2:3">
       <c r="B202" s="3"/>
@@ -3719,8 +4240,8 @@
       <c r="C214" s="3"/>
     </row>
     <row r="215" spans="2:3">
-      <c r="B215" s="3"/>
-      <c r="C215" s="3"/>
+      <c r="B215" s="1"/>
+      <c r="C215" s="1"/>
     </row>
     <row r="216" spans="2:3">
       <c r="B216" s="3"/>
@@ -3789,6 +4310,98 @@
     <row r="232" spans="2:3">
       <c r="B232" s="3"/>
       <c r="C232" s="3"/>
+    </row>
+    <row r="233" spans="2:3">
+      <c r="B233" s="3"/>
+      <c r="C233" s="3"/>
+    </row>
+    <row r="234" spans="2:3">
+      <c r="B234" s="3"/>
+      <c r="C234" s="3"/>
+    </row>
+    <row r="235" spans="2:3">
+      <c r="B235" s="3"/>
+      <c r="C235" s="3"/>
+    </row>
+    <row r="236" spans="2:3">
+      <c r="B236" s="3"/>
+      <c r="C236" s="3"/>
+    </row>
+    <row r="237" spans="2:3">
+      <c r="B237" s="3"/>
+      <c r="C237" s="3"/>
+    </row>
+    <row r="238" spans="2:3">
+      <c r="B238" s="3"/>
+      <c r="C238" s="3"/>
+    </row>
+    <row r="239" spans="2:3">
+      <c r="B239" s="3"/>
+      <c r="C239" s="3"/>
+    </row>
+    <row r="240" spans="2:3">
+      <c r="B240" s="3"/>
+      <c r="C240" s="3"/>
+    </row>
+    <row r="241" spans="2:3">
+      <c r="B241" s="3"/>
+      <c r="C241" s="3"/>
+    </row>
+    <row r="242" spans="2:3">
+      <c r="B242" s="3"/>
+      <c r="C242" s="3"/>
+    </row>
+    <row r="243" spans="2:3">
+      <c r="B243" s="3"/>
+      <c r="C243" s="3"/>
+    </row>
+    <row r="244" spans="2:3">
+      <c r="B244" s="3"/>
+      <c r="C244" s="3"/>
+    </row>
+    <row r="245" spans="2:3">
+      <c r="B245" s="3"/>
+      <c r="C245" s="3"/>
+    </row>
+    <row r="246" spans="2:3">
+      <c r="B246" s="3"/>
+      <c r="C246" s="3"/>
+    </row>
+    <row r="247" spans="2:3">
+      <c r="B247" s="3"/>
+      <c r="C247" s="3"/>
+    </row>
+    <row r="248" spans="2:3">
+      <c r="B248" s="3"/>
+      <c r="C248" s="3"/>
+    </row>
+    <row r="249" spans="2:3">
+      <c r="B249" s="3"/>
+      <c r="C249" s="3"/>
+    </row>
+    <row r="250" spans="2:3">
+      <c r="B250" s="3"/>
+      <c r="C250" s="3"/>
+    </row>
+    <row r="251" spans="2:3">
+      <c r="B251" s="3"/>
+      <c r="C251" s="3"/>
+    </row>
+    <row r="252" spans="2:3">
+      <c r="B252" s="3"/>
+      <c r="C252" s="3"/>
+    </row>
+    <row r="253" spans="2:3">
+      <c r="B253" s="3"/>
+      <c r="C253" s="3"/>
+    </row>
+    <row r="254" spans="2:3">
+      <c r="B254" s="3"/>
+      <c r="C254" s="3"/>
+    </row>
+    <row r="255" spans="2:3">
+      <c r="B255" s="3"/>
+      <c r="C255" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/learning/data_sample.xlsx
+++ b/learning/data_sample.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="0" windowWidth="33600" windowHeight="20540" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33520" windowHeight="20540" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="質問マスタ" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="107">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -746,6 +746,10 @@
     <rPh sb="3" eb="4">
       <t>ツカ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>active_hash</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -805,7 +809,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="286">
+  <cellStyleXfs count="368">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -913,6 +917,88 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1101,7 +1187,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="286">
+  <cellStyles count="368">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="108" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="110" builtinId="8" hidden="1"/>
@@ -1192,6 +1278,47 @@
     <cellStyle name="ハイパーリンク" xfId="280" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="282" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="284" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="286" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="288" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="290" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="292" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="294" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="296" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="298" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="300" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="302" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="304" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="306" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="308" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="310" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="312" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="314" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="316" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="318" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="320" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="322" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="324" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="326" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="328" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="330" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="332" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="334" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="336" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="338" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="340" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="342" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="344" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="346" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="348" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="350" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="352" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="354" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="356" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="358" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="360" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="362" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="364" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="366" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="3" builtinId="9" hidden="1"/>
@@ -1388,6 +1515,47 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="281" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="283" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="285" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="287" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="289" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="291" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="293" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="295" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="297" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="299" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="301" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="303" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="305" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="307" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="309" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="311" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="313" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="315" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="317" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="319" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="321" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="323" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="325" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="327" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="329" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="331" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="333" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="335" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="337" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="339" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="341" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="343" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="345" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="347" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="349" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="351" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="353" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="355" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="357" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="359" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="361" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="363" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="365" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="367" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1719,7 +1887,7 @@
   <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -2149,10 +2317,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -2160,7 +2328,7 @@
     <col min="2" max="2" width="96" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2168,15 +2336,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="70">
+      <c r="D2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="70">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2184,8 +2355,12 @@
         <v>13</v>
       </c>
       <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" ht="83">
+      <c r="D3" t="str">
+        <f>"{ id: " &amp;A3&amp;", text: """ &amp; SUBSTITUTE(B3, CHAR(13), "\n") &amp; """ },"</f>
+        <v>{ id: 1, text: "SUMAOU!は、誰でも簡単にスマホページが作れるサービスです。\n自動更新システムが搭載されたトップページを作成する機能と、 商品ページの詳細情報をスマホ用に最適化された一枚画像に書き出す機能の2種類がございます。\n\n現在は、楽天市場とYahoo!ショッピングのみの対応となっております。" },</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="83">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2193,8 +2368,12 @@
         <v>14</v>
       </c>
       <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:3" ht="83">
+      <c r="D4" t="str">
+        <f t="shared" ref="D4:D14" si="0">"{ id: " &amp;A4&amp;", text: """ &amp; SUBSTITUTE(B4, CHAR(13), "\n") &amp; """ },"</f>
+        <v>{ id: 2, text: "無料のお試し期間は、アカウント登録日の翌月末までとなっております。\n例えば、月初（1日）にアカウント登録されますと、登録した当月＋翌月の丸々2ヶ月分がお試し頂けます。\nなお、お試し期間が終了後は自動的に製品版への更新されませんのでご安心下さい。\n\n※楽天サービススクエア経由でのお申込時は自動的に製品版へと更新されます。\n詳しくはこちらをご覧下さい。" },</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="83">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2202,8 +2381,12 @@
         <v>15</v>
       </c>
       <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:3" ht="57">
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>{ id: 3, text: "無料のお試し期間は、アカウント登録日の翌月末までとなっております。\n例えば、月初（1日）にアカウント登録されますと、登録した当月＋翌月の丸々2ヶ月分がお試し頂けます。\nなお、お試し期間が終了後は自動的に製品版への更新されませんのでご安心下さい。\n\n※楽天サービススクエア経由でのお申込時は自動的に製品版へと更新されます。\n詳しくはこちらをご覧下さい。" },</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="57">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2211,8 +2394,12 @@
         <v>16</v>
       </c>
       <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:3" ht="96">
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>{ id: 4, text: "ご利用には楽天GOLDまたはYahoo!トリプルへのお申込みが必須となります。\n上記はよりカスタマイズ可能にするためのサーバープランとなり、\n楽天GOLDは全店舗「無料」、Yahoo!トリプルは「月額3,000円～」にてご利用頂けます。\n詳しくは各モールのサポートセンターへとお問い合わせ下さい。" },</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="96">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2220,8 +2407,12 @@
         <v>17</v>
       </c>
       <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>{ id: 5, text: "自動更新システムが搭載されたトップページを作成する機能でございます。\n1日1回、ページに表示される商品を自動で更新するため、運営の手間が劇的に軽減いたします。\nまた、ポイントアップ商品や送料無料の商品、特定のキーワードが入った商品を自動で表示する等、 様々なアプローチで商品を掲載することにより、お客様により多くの情報をお届けが可能です。\n\n※スライドバナー・ミニバナーにつきましては自動更新ではございません。\n　予めご了承下さい。" },</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2229,8 +2420,12 @@
         <v>18</v>
       </c>
       <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:3" ht="31">
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>{ id: 6, text: "はい、ございます。 こちらをご覧下さい。" },</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="31">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2238,8 +2433,12 @@
         <v>19</v>
       </c>
       <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>{ id: 7, text: "商品ページの詳細情報をスマホ用に最適化された一枚画像に書き出す機能です。\nPC商品ページと同じ情報量をスマホでもお届けすることが可能となっております。" },</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2247,8 +2446,12 @@
         <v>20</v>
       </c>
       <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:3" ht="109">
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>{ id: 8, text: "はい、ございます。 こちらをご覧下さい。" },</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="109">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2256,8 +2459,12 @@
         <v>10</v>
       </c>
       <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>{ id: 9, text: "何について知りたい？\n・SUMAOU!について\n・無料お試しについて\n・スマホサイトを作る について\n・商品ページ情報を作る について\n・製品版のお申込みについて\n・ご解約について\n・その他のご質問について" },</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2265,8 +2472,12 @@
         <v>59</v>
       </c>
       <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>{ id: 10, text: "SUMAOU!ついて何が知りたい？" },</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2274,8 +2485,12 @@
         <v>58</v>
       </c>
       <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>{ id: 11, text: "無料お試し について何が知りたい？" },</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2283,11 +2498,15 @@
         <v>57</v>
       </c>
       <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>{ id: 12, text: "スマホサイトを作る について何が知りたい？" },</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:4">
       <c r="C16" s="3"/>
     </row>
     <row r="17" spans="3:3">
@@ -2351,8 +2570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F255"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="A8:XFD10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G67" sqref="G67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
